--- a/Results/Graphs_report2/tables.xlsx
+++ b/Results/Graphs_report2/tables.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>year</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>ERC_PR</t>
+  </si>
+  <si>
+    <t>NC_PR</t>
   </si>
   <si>
     <t>ExF_MA</t>
@@ -227,10 +230,13 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>2015.0</v>
@@ -263,15 +269,18 @@
         <v>31.43888383974378</v>
       </c>
       <c r="L2" t="n">
+        <v>28.233351474359893</v>
+      </c>
+      <c r="M2" t="n">
         <v>-1.6694337658040215</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>12.26596018288873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
         <v>2016.0</v>
@@ -304,15 +313,18 @@
         <v>29.609159141489314</v>
       </c>
       <c r="L3" t="n">
+        <v>26.834264792199534</v>
+      </c>
+      <c r="M3" t="n">
         <v>-1.777756714551622</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>11.97799542009921</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
         <v>2017.0</v>
@@ -345,15 +357,18 @@
         <v>26.72053262749625</v>
       </c>
       <c r="L4" t="n">
+        <v>25.93219265135643</v>
+      </c>
+      <c r="M4" t="n">
         <v>-2.017035801511651</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>11.86474487237708</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>2018.0</v>
@@ -386,15 +401,18 @@
         <v>26.22867130436302</v>
       </c>
       <c r="L5" t="n">
+        <v>25.077051653222373</v>
+      </c>
+      <c r="M5" t="n">
         <v>-2.0519218502833345</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>11.722075209578518</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
         <v>2019.0</v>
@@ -427,15 +445,18 @@
         <v>23.986241294949124</v>
       </c>
       <c r="L6" t="n">
+        <v>24.25923049405211</v>
+      </c>
+      <c r="M6" t="n">
         <v>-2.2342408360497346</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>11.577002011274585</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
         <v>2020.0</v>
@@ -468,15 +489,18 @@
         <v>21.15083417394243</v>
       </c>
       <c r="L7" t="n">
+        <v>23.785146651455086</v>
+      </c>
+      <c r="M7" t="n">
         <v>-2.2477383265021826</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>11.567780073910502</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
         <v>2021.0</v>
@@ -509,15 +533,18 @@
         <v>20.7519140838895</v>
       </c>
       <c r="L8" t="n">
+        <v>23.68823758525744</v>
+      </c>
+      <c r="M8" t="n">
         <v>-2.3765392287708633</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>11.745260871036011</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
         <v>2022.0</v>
@@ -550,15 +577,18 @@
         <v>20.670662643955207</v>
       </c>
       <c r="L9" t="n">
+        <v>23.60056645324508</v>
+      </c>
+      <c r="M9" t="n">
         <v>-2.4654454245635287</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>11.903903298795349</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>2023.0</v>
@@ -591,15 +621,18 @@
         <v>20.608337378625027</v>
       </c>
       <c r="L10" t="n">
+        <v>23.51953724194511</v>
+      </c>
+      <c r="M10" t="n">
         <v>-2.544783501628456</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>12.050480343185328</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
         <v>2024.0</v>
@@ -632,15 +665,18 @@
         <v>17.612016289105025</v>
       </c>
       <c r="L11" t="n">
+        <v>23.44217035343518</v>
+      </c>
+      <c r="M11" t="n">
         <v>-2.859895818483722</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>12.18814183977533</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
         <v>2025.0</v>
@@ -673,15 +709,18 @@
         <v>15.578475099675297</v>
       </c>
       <c r="L12" t="n">
+        <v>23.3671070308337</v>
+      </c>
+      <c r="M12" t="n">
         <v>-3.0960360350975877</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>12.291253402990279</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
         <v>2026.0</v>
@@ -714,15 +753,18 @@
         <v>13.510164139143443</v>
       </c>
       <c r="L13" t="n">
+        <v>23.312198344243047</v>
+      </c>
+      <c r="M13" t="n">
         <v>-3.335420296715994</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>12.370255967197156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
         <v>2027.0</v>
@@ -755,15 +797,18 @@
         <v>13.42093431498204</v>
       </c>
       <c r="L14" t="n">
+        <v>23.263882615521844</v>
+      </c>
+      <c r="M14" t="n">
         <v>-3.4133284139292313</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>12.41647092151446</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
         <v>2028.0</v>
@@ -796,15 +841,18 @@
         <v>14.560764070970103</v>
       </c>
       <c r="L15" t="n">
+        <v>23.218591402403977</v>
+      </c>
+      <c r="M15" t="n">
         <v>-3.38843123256155</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>12.453170272975848</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="n">
         <v>2029.0</v>
@@ -837,15 +885,18 @@
         <v>14.473837088118286</v>
       </c>
       <c r="L16" t="n">
+        <v>23.172250822721104</v>
+      </c>
+      <c r="M16" t="n">
         <v>-3.456778218416834</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>12.494555073939033</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n">
         <v>2030.0</v>
@@ -878,15 +929,18 @@
         <v>14.416844334742187</v>
       </c>
       <c r="L17" t="n">
+        <v>23.12171489691118</v>
+      </c>
+      <c r="M17" t="n">
         <v>-3.5256227347904674</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>12.531281168603005</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n">
         <v>2031.0</v>
@@ -919,15 +973,18 @@
         <v>14.557133064761809</v>
       </c>
       <c r="L18" t="n">
+        <v>23.083072685749684</v>
+      </c>
+      <c r="M18" t="n">
         <v>-3.570561558644269</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>12.560029926103743</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="n">
         <v>2032.0</v>
@@ -960,15 +1017,18 @@
         <v>12.833952317015992</v>
       </c>
       <c r="L19" t="n">
+        <v>23.063830279312587</v>
+      </c>
+      <c r="M19" t="n">
         <v>-3.7510481546668597</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>12.582412586978915</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="n">
         <v>2033.0</v>
@@ -1001,15 +1061,18 @@
         <v>11.810585225999393</v>
       </c>
       <c r="L20" t="n">
+        <v>23.066955719892295</v>
+      </c>
+      <c r="M20" t="n">
         <v>-3.87211866543616</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>12.584424255143524</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="n">
         <v>2034.0</v>
@@ -1042,15 +1105,18 @@
         <v>15.419172031115922</v>
       </c>
       <c r="L21" t="n">
+        <v>23.094765407588657</v>
+      </c>
+      <c r="M21" t="n">
         <v>-3.6217132809770023</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>12.576985122169999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="n">
         <v>2035.0</v>
@@ -1083,15 +1149,18 @@
         <v>16.66987085518552</v>
       </c>
       <c r="L22" t="n">
+        <v>23.148986663035576</v>
+      </c>
+      <c r="M22" t="n">
         <v>-3.54597586612656</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>12.612057793068196</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
         <v>2036.0</v>
@@ -1124,15 +1193,18 @@
         <v>15.449047401615925</v>
       </c>
       <c r="L23" t="n">
+        <v>23.190462502906957</v>
+      </c>
+      <c r="M23" t="n">
         <v>-3.6533307865743097</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>12.645977245564282</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="n">
         <v>2037.0</v>
@@ -1165,15 +1237,18 @@
         <v>17.268501482228647</v>
       </c>
       <c r="L24" t="n">
+        <v>23.21770097078383</v>
+      </c>
+      <c r="M24" t="n">
         <v>-3.515789913860119</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>12.65453494549123</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="n">
         <v>2038.0</v>
@@ -1206,15 +1281,18 @@
         <v>16.057711746298143</v>
       </c>
       <c r="L25" t="n">
+        <v>23.23199203759563</v>
+      </c>
+      <c r="M25" t="n">
         <v>-3.6063347356694004</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>12.671473220380463</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="n">
         <v>2039.0</v>
@@ -1247,15 +1325,18 @@
         <v>16.426786817660233</v>
       </c>
       <c r="L26" t="n">
+        <v>23.232307808184533</v>
+      </c>
+      <c r="M26" t="n">
         <v>-3.571765245142313</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>12.667774855802431</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="n">
         <v>2040.0</v>
@@ -1288,15 +1369,18 @@
         <v>15.30139786847719</v>
       </c>
       <c r="L27" t="n">
+        <v>23.226882343745693</v>
+      </c>
+      <c r="M27" t="n">
         <v>-3.6557998770034508</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>12.663209403589534</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="n">
         <v>2041.0</v>
@@ -1329,15 +1413,18 @@
         <v>13.776889568940124</v>
       </c>
       <c r="L28" t="n">
+        <v>23.222376915918186</v>
+      </c>
+      <c r="M28" t="n">
         <v>-3.7662517583821176</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>12.643083004647547</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="n">
         <v>2042.0</v>
@@ -1370,15 +1457,18 @@
         <v>13.78125167207902</v>
       </c>
       <c r="L29" t="n">
+        <v>23.219641831854</v>
+      </c>
+      <c r="M29" t="n">
         <v>-3.754457948608667</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>12.606502891806635</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="n">
         <v>2043.0</v>
@@ -1411,15 +1501,18 @@
         <v>13.775706050539645</v>
       </c>
       <c r="L30" t="n">
+        <v>23.217573735946473</v>
+      </c>
+      <c r="M30" t="n">
         <v>-3.738458312570659</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>12.570241262045338</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="n">
         <v>2044.0</v>
@@ -1452,9 +1545,12 @@
         <v>13.766490746207635</v>
       </c>
       <c r="L31" t="n">
+        <v>23.21963912026572</v>
+      </c>
+      <c r="M31" t="n">
         <v>-3.7190000477571576</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>12.537359395437909</v>
       </c>
     </row>
@@ -1509,10 +1605,13 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>2015.0</v>
@@ -1545,15 +1644,18 @@
         <v>31.43888383974378</v>
       </c>
       <c r="L2" t="n">
+        <v>28.233351474359893</v>
+      </c>
+      <c r="M2" t="n">
         <v>-1.6694337658040215</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>12.26596018288873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
         <v>2020.0</v>
@@ -1586,15 +1688,18 @@
         <v>21.15083417394243</v>
       </c>
       <c r="L3" t="n">
+        <v>23.785146651455086</v>
+      </c>
+      <c r="M3" t="n">
         <v>-2.2477383265021826</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>11.567780073910502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
         <v>2025.0</v>
@@ -1627,15 +1732,18 @@
         <v>15.578475099675297</v>
       </c>
       <c r="L4" t="n">
+        <v>23.3671070308337</v>
+      </c>
+      <c r="M4" t="n">
         <v>-3.0960360350975877</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>12.291253402990279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>2030.0</v>
@@ -1668,15 +1776,18 @@
         <v>14.416844334742187</v>
       </c>
       <c r="L5" t="n">
+        <v>23.12171489691118</v>
+      </c>
+      <c r="M5" t="n">
         <v>-3.5256227347904674</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>12.531281168603005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
         <v>2035.0</v>
@@ -1709,15 +1820,18 @@
         <v>16.66987085518552</v>
       </c>
       <c r="L6" t="n">
+        <v>23.148986663035576</v>
+      </c>
+      <c r="M6" t="n">
         <v>-3.54597586612656</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>12.612057793068196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
         <v>2040.0</v>
@@ -1750,15 +1864,18 @@
         <v>15.30139786847719</v>
       </c>
       <c r="L7" t="n">
+        <v>23.226882343745693</v>
+      </c>
+      <c r="M7" t="n">
         <v>-3.6557998770034508</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>12.663209403589534</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
         <v>2044.0</v>
@@ -1791,9 +1908,12 @@
         <v>13.766490746207635</v>
       </c>
       <c r="L8" t="n">
+        <v>23.21963912026572</v>
+      </c>
+      <c r="M8" t="n">
         <v>-3.7190000477571576</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>12.537359395437909</v>
       </c>
     </row>

--- a/Results/Graphs_report2/tables.xlsx
+++ b/Results/Graphs_report2/tables.xlsx
@@ -203,10 +203,10 @@
     <t>ERC_high</t>
   </si>
   <si>
+    <t>EEC_high</t>
+  </si>
+  <si>
     <t>EEC_PR.q75</t>
-  </si>
-  <si>
-    <t>EEC_high</t>
   </si>
 </sst>
 </file>
@@ -2277,49 +2277,49 @@
         <v>62</v>
       </c>
       <c r="C2" t="n">
-        <v>9.507898858448504</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>9.507898858448504</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.507898858448504</v>
+        <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.507898858448504</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.507898858448504</v>
+        <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>15.876655277095423</v>
+        <v>4.747626186906547</v>
       </c>
       <c r="I2" t="n">
-        <v>16.20603702879181</v>
+        <v>4.897551224387806</v>
       </c>
       <c r="J2" t="n">
-        <v>16.696975459214272</v>
+        <v>5.347326336831585</v>
       </c>
       <c r="K2" t="n">
-        <v>15.798828077014075</v>
+        <v>11.994002998500749</v>
       </c>
       <c r="L2" t="n">
-        <v>19.327900164312137</v>
+        <v>13.943028485757122</v>
       </c>
       <c r="M2" t="n">
-        <v>35.58942756269336</v>
+        <v>100.0</v>
       </c>
       <c r="N2" t="n">
-        <v>34.70299684258166</v>
+        <v>100.0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.123551802056056</v>
+        <v>100.0</v>
       </c>
       <c r="P2" t="n">
-        <v>44.12255125271142</v>
+        <v>100.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>53.786050736833246</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="3">
@@ -2330,49 +2330,49 @@
         <v>63</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>9.507898858448504</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>9.507898858448504</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>9.507898858448504</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>9.507898858448504</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>9.507898858448504</v>
       </c>
       <c r="H3" t="n">
-        <v>48.825587206396804</v>
+        <v>15.876655277095423</v>
       </c>
       <c r="I3" t="n">
-        <v>53.373313343328334</v>
+        <v>16.20603702879181</v>
       </c>
       <c r="J3" t="n">
-        <v>65.06746626686656</v>
+        <v>16.696975459214272</v>
       </c>
       <c r="K3" t="n">
-        <v>55.622188905547226</v>
+        <v>15.798828077014075</v>
       </c>
       <c r="L3" t="n">
-        <v>70.06496751624188</v>
+        <v>19.327900164312137</v>
       </c>
       <c r="M3" t="n">
-        <v>100.0</v>
+        <v>35.58942756269336</v>
       </c>
       <c r="N3" t="n">
-        <v>100.0</v>
+        <v>34.70299684258166</v>
       </c>
       <c r="O3" t="n">
-        <v>100.0</v>
+        <v>42.123551802056056</v>
       </c>
       <c r="P3" t="n">
-        <v>100.0</v>
+        <v>44.12255125271142</v>
       </c>
       <c r="Q3" t="n">
-        <v>100.0</v>
+        <v>53.786050736833246</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Graphs_report2/tables.xlsx
+++ b/Results/Graphs_report2/tables.xlsx
@@ -304,43 +304,43 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="C2" t="n">
-        <v>18217.847796340335</v>
+        <v>18735.619219568038</v>
       </c>
       <c r="D2" t="n">
-        <v>17234.084015337954</v>
+        <v>17049.413489806917</v>
       </c>
       <c r="E2" t="n">
-        <v>861.9304279160804</v>
+        <v>905.7444929012577</v>
       </c>
       <c r="F2" t="n">
-        <v>575.325280451873</v>
+        <v>564.5035954737891</v>
       </c>
       <c r="G2" t="n">
-        <v>441.1060919449428</v>
+        <v>430.051833143195</v>
       </c>
       <c r="H2" t="n">
-        <v>134.21918850693024</v>
+        <v>134.45176233059414</v>
       </c>
       <c r="I2" t="n">
-        <v>-286.6051474642073</v>
+        <v>-341.24089742746855</v>
       </c>
       <c r="J2" t="n">
-        <v>94.6000000000001</v>
+        <v>90.9999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>31.469219085978793</v>
+        <v>30.778119227237926</v>
       </c>
       <c r="L2" t="n">
-        <v>28.233351474359893</v>
+        <v>28.190093731304653</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.6630135213982653</v>
+        <v>-2.0014817379582075</v>
       </c>
       <c r="N2" t="n">
-        <v>12.295073124778526</v>
+        <v>12.201991497360494</v>
       </c>
     </row>
     <row r="3">
@@ -348,43 +348,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="C3" t="n">
-        <v>19148.01609039689</v>
+        <v>19573.444781083057</v>
       </c>
       <c r="D3" t="n">
-        <v>18218.53978296428</v>
+        <v>17961.285536807907</v>
       </c>
       <c r="E3" t="n">
-        <v>920.3927973800402</v>
+        <v>958.5703259244088</v>
       </c>
       <c r="F3" t="n">
-        <v>594.2545158504694</v>
+        <v>565.6289448193611</v>
       </c>
       <c r="G3" t="n">
-        <v>449.23694557336376</v>
+        <v>419.9912721929643</v>
       </c>
       <c r="H3" t="n">
-        <v>145.01757027710556</v>
+        <v>145.63767262639678</v>
       </c>
       <c r="I3" t="n">
-        <v>-326.1382815295708</v>
+        <v>-392.9413811050477</v>
       </c>
       <c r="J3" t="n">
-        <v>95.14583493639967</v>
+        <v>91.76353849664098</v>
       </c>
       <c r="K3" t="n">
-        <v>29.60765174775595</v>
+        <v>27.743296247899067</v>
       </c>
       <c r="L3" t="n">
-        <v>26.834264792199534</v>
+        <v>26.8141360581991</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.7901450138969695</v>
+        <v>-2.187713013635891</v>
       </c>
       <c r="N3" t="n">
-        <v>12.0072088140078</v>
+        <v>11.864657640119269</v>
       </c>
     </row>
     <row r="4">
@@ -392,43 +392,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="C4" t="n">
-        <v>20100.61189851084</v>
+        <v>20439.44456749203</v>
       </c>
       <c r="D4" t="n">
-        <v>19234.331614042312</v>
+        <v>18885.969967380577</v>
       </c>
       <c r="E4" t="n">
-        <v>979.5463622903571</v>
+        <v>1013.0539436547016</v>
       </c>
       <c r="F4" t="n">
-        <v>585.9640689274478</v>
+        <v>604.4142710744418</v>
       </c>
       <c r="G4" t="n">
-        <v>431.8572835591891</v>
+        <v>449.4439885008563</v>
       </c>
       <c r="H4" t="n">
-        <v>154.10678536825864</v>
+        <v>154.97028257358554</v>
       </c>
       <c r="I4" t="n">
-        <v>-393.5822933629093</v>
+        <v>-408.6396725802598</v>
       </c>
       <c r="J4" t="n">
-        <v>95.69027903805889</v>
+        <v>92.39962419241958</v>
       </c>
       <c r="K4" t="n">
-        <v>26.70082590687245</v>
+        <v>27.8328850518595</v>
       </c>
       <c r="L4" t="n">
-        <v>25.93219265135643</v>
+        <v>25.926742990702262</v>
       </c>
       <c r="M4" t="n">
-        <v>-2.0462488703042254</v>
+        <v>-2.1637208641444046</v>
       </c>
       <c r="N4" t="n">
-        <v>11.89218196411889</v>
+        <v>11.695584870281845</v>
       </c>
     </row>
     <row r="5">
@@ -436,43 +436,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="C5" t="n">
-        <v>21077.662805942597</v>
+        <v>21334.730186869554</v>
       </c>
       <c r="D5" t="n">
-        <v>20253.805519730362</v>
+        <v>19863.13006691034</v>
       </c>
       <c r="E5" t="n">
-        <v>1040.4219035508313</v>
+        <v>1070.0787755560543</v>
       </c>
       <c r="F5" t="n">
-        <v>615.8519748870933</v>
+        <v>613.0136411127614</v>
       </c>
       <c r="G5" t="n">
-        <v>451.9916000462556</v>
+        <v>448.02949834502203</v>
       </c>
       <c r="H5" t="n">
-        <v>163.86037484083775</v>
+        <v>164.98414276773934</v>
       </c>
       <c r="I5" t="n">
-        <v>-424.56992866373804</v>
+        <v>-457.06513444329295</v>
       </c>
       <c r="J5" t="n">
-        <v>96.09132523943804</v>
+        <v>93.10232608020078</v>
       </c>
       <c r="K5" t="n">
-        <v>26.212103362796746</v>
+        <v>26.006956930980188</v>
       </c>
       <c r="L5" t="n">
-        <v>25.077051653222373</v>
+        <v>25.077026419130274</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.0962476817017954</v>
+        <v>-2.3010730579905445</v>
       </c>
       <c r="N5" t="n">
-        <v>11.745679426759816</v>
+        <v>11.53003474264061</v>
       </c>
     </row>
     <row r="6">
@@ -480,43 +480,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="C6" t="n">
-        <v>22080.101337981487</v>
+        <v>22259.454567716184</v>
       </c>
       <c r="D6" t="n">
-        <v>21316.42826039662</v>
+        <v>20861.519802402076</v>
       </c>
       <c r="E6" t="n">
-        <v>1103.7930567792434</v>
+        <v>1130.3223404283374</v>
       </c>
       <c r="F6" t="n">
-        <v>615.1856520271475</v>
+        <v>598.5517691032122</v>
       </c>
       <c r="G6" t="n">
-        <v>440.9009812057126</v>
+        <v>422.8594549446894</v>
       </c>
       <c r="H6" t="n">
-        <v>174.28467082143496</v>
+        <v>175.6923141585228</v>
       </c>
       <c r="I6" t="n">
-        <v>-488.60740475209593</v>
+        <v>-531.770571325125</v>
       </c>
       <c r="J6" t="n">
-        <v>96.54135157309625</v>
+        <v>93.71981572566649</v>
       </c>
       <c r="K6" t="n">
-        <v>23.982795002949167</v>
+        <v>23.00733743885847</v>
       </c>
       <c r="L6" t="n">
-        <v>24.25923049405211</v>
+        <v>24.258590191472162</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.2921635781725693</v>
+        <v>-2.549050003844375</v>
       </c>
       <c r="N6" t="n">
-        <v>11.595064446582382</v>
+        <v>11.350533137400774</v>
       </c>
     </row>
     <row r="7">
@@ -524,43 +524,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>2020.0</v>
+        <v>2021.0</v>
       </c>
       <c r="C7" t="n">
-        <v>23107.940679362855</v>
+        <v>23212.952158169173</v>
       </c>
       <c r="D7" t="n">
-        <v>22389.907419817868</v>
+        <v>21854.480423407724</v>
       </c>
       <c r="E7" t="n">
-        <v>1093.4701160118484</v>
+        <v>1117.442344969139</v>
       </c>
       <c r="F7" t="n">
-        <v>591.0792899188114</v>
+        <v>625.4401483062393</v>
       </c>
       <c r="G7" t="n">
-        <v>409.3771693999758</v>
+        <v>442.6648276002358</v>
       </c>
       <c r="H7" t="n">
-        <v>181.70212051883559</v>
+        <v>182.77532070600344</v>
       </c>
       <c r="I7" t="n">
-        <v>-502.3908260930371</v>
+        <v>-492.0021966628996</v>
       </c>
       <c r="J7" t="n">
-        <v>96.89269905307391</v>
+        <v>94.14778557460055</v>
       </c>
       <c r="K7" t="n">
-        <v>21.170982930178873</v>
+        <v>22.88584118480187</v>
       </c>
       <c r="L7" t="n">
-        <v>23.785146651455086</v>
+        <v>23.784066188117748</v>
       </c>
       <c r="M7" t="n">
-        <v>-2.243827170309594</v>
+        <v>-2.251264670359904</v>
       </c>
       <c r="N7" t="n">
-        <v>11.578963929229744</v>
+        <v>11.298800739555395</v>
       </c>
     </row>
     <row r="8">
@@ -568,43 +568,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
       <c r="C8" t="n">
-        <v>24159.976839512343</v>
+        <v>24247.21450756656</v>
       </c>
       <c r="D8" t="n">
-        <v>23529.080338254193</v>
+        <v>22964.664093750685</v>
       </c>
       <c r="E8" t="n">
-        <v>1161.2929121255454</v>
+        <v>1183.1880745137273</v>
       </c>
       <c r="F8" t="n">
-        <v>602.7227929804063</v>
+        <v>657.2141647845392</v>
       </c>
       <c r="G8" t="n">
-        <v>415.3466546586637</v>
+        <v>468.8483764286814</v>
       </c>
       <c r="H8" t="n">
-        <v>187.3761383217426</v>
+        <v>188.3657883558579</v>
       </c>
       <c r="I8" t="n">
-        <v>-558.5701191451392</v>
+        <v>-525.9739097291882</v>
       </c>
       <c r="J8" t="n">
-        <v>97.38867091864789</v>
+        <v>94.71052473505506</v>
       </c>
       <c r="K8" t="n">
-        <v>20.75417552721432</v>
+        <v>23.382532136639707</v>
       </c>
       <c r="L8" t="n">
-        <v>23.68823758525744</v>
+        <v>23.660173718986304</v>
       </c>
       <c r="M8" t="n">
-        <v>-2.373956445025186</v>
+        <v>-2.290361868921567</v>
       </c>
       <c r="N8" t="n">
-        <v>11.757086709543064</v>
+        <v>11.452998947538058</v>
       </c>
     </row>
     <row r="9">
@@ -612,43 +612,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>2022.0</v>
+        <v>2023.0</v>
       </c>
       <c r="C9" t="n">
-        <v>25233.205201284825</v>
+        <v>25303.825002601327</v>
       </c>
       <c r="D9" t="n">
-        <v>24693.298485542233</v>
+        <v>24121.591947823108</v>
       </c>
       <c r="E9" t="n">
-        <v>1230.1956514863139</v>
+        <v>1250.1529649416304</v>
       </c>
       <c r="F9" t="n">
-        <v>621.7539006534897</v>
+        <v>679.2103955406075</v>
       </c>
       <c r="G9" t="n">
-        <v>428.0764406382178</v>
+        <v>484.6714034656001</v>
       </c>
       <c r="H9" t="n">
-        <v>193.67746001527198</v>
+        <v>194.53899207500734</v>
       </c>
       <c r="I9" t="n">
-        <v>-608.4417508328241</v>
+        <v>-570.9425694010229</v>
       </c>
       <c r="J9" t="n">
-        <v>97.8603324015488</v>
+        <v>95.32784843929055</v>
       </c>
       <c r="K9" t="n">
-        <v>20.657613843649404</v>
+        <v>23.3141198933075</v>
       </c>
       <c r="L9" t="n">
-        <v>23.60056645324508</v>
+        <v>23.55508140034815</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.463995448761383</v>
+        <v>-2.3669356924535347</v>
       </c>
       <c r="N9" t="n">
-        <v>11.916204121857083</v>
+        <v>11.603195127003271</v>
       </c>
     </row>
     <row r="10">
@@ -656,43 +656,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>2023.0</v>
+        <v>2024.0</v>
       </c>
       <c r="C10" t="n">
-        <v>26328.97652796603</v>
+        <v>26384.104184307056</v>
       </c>
       <c r="D10" t="n">
-        <v>25891.220989812613</v>
+        <v>25316.94808180374</v>
       </c>
       <c r="E10" t="n">
-        <v>1300.9635248144316</v>
+        <v>1319.0528795659518</v>
       </c>
       <c r="F10" t="n">
-        <v>642.2079159440649</v>
+        <v>636.8145060833733</v>
       </c>
       <c r="G10" t="n">
-        <v>441.7495277034651</v>
+        <v>435.5818384717103</v>
       </c>
       <c r="H10" t="n">
-        <v>200.4583882405998</v>
+        <v>201.23266761166303</v>
       </c>
       <c r="I10" t="n">
-        <v>-658.7556088703668</v>
+        <v>-682.2383734825785</v>
       </c>
       <c r="J10" t="n">
-        <v>98.33736211626585</v>
+        <v>95.9553066685583</v>
       </c>
       <c r="K10" t="n">
-        <v>20.5817794911069</v>
+        <v>20.210927344733932</v>
       </c>
       <c r="L10" t="n">
-        <v>23.51953724194511</v>
+        <v>23.465242993862862</v>
       </c>
       <c r="M10" t="n">
-        <v>-2.544320366851631</v>
+        <v>-2.6947891636785766</v>
       </c>
       <c r="N10" t="n">
-        <v>12.063111961617196</v>
+        <v>11.747023247503202</v>
       </c>
     </row>
     <row r="11">
@@ -700,43 +700,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>2024.0</v>
+        <v>2025.0</v>
       </c>
       <c r="C11" t="n">
-        <v>27447.777226159706</v>
+        <v>27488.57721155135</v>
       </c>
       <c r="D11" t="n">
-        <v>27124.900284512918</v>
+        <v>26482.31293644525</v>
       </c>
       <c r="E11" t="n">
-        <v>1374.1511068349864</v>
+        <v>1390.3970510152283</v>
       </c>
       <c r="F11" t="n">
-        <v>598.2149307119261</v>
+        <v>614.0405263468054</v>
       </c>
       <c r="G11" t="n">
-        <v>390.5376133116598</v>
+        <v>405.64070304234826</v>
       </c>
       <c r="H11" t="n">
-        <v>207.67731740026625</v>
+        <v>208.39982330445721</v>
       </c>
       <c r="I11" t="n">
-        <v>-775.9361761230604</v>
+        <v>-776.3565246684228</v>
       </c>
       <c r="J11" t="n">
-        <v>98.82366816450585</v>
+        <v>96.33933663658955</v>
       </c>
       <c r="K11" t="n">
-        <v>17.566663456314103</v>
+        <v>18.160000792548903</v>
       </c>
       <c r="L11" t="n">
-        <v>23.44217035343518</v>
+        <v>23.387160109164054</v>
       </c>
       <c r="M11" t="n">
-        <v>-2.860604713692107</v>
+        <v>-2.93160392195197</v>
       </c>
       <c r="N11" t="n">
-        <v>12.20097574068651</v>
+        <v>11.855783216709561</v>
       </c>
     </row>
     <row r="12">
@@ -744,43 +744,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>2025.0</v>
+        <v>2026.0</v>
       </c>
       <c r="C12" t="n">
-        <v>28589.39550259011</v>
+        <v>28617.12365214291</v>
       </c>
       <c r="D12" t="n">
-        <v>28325.136416519093</v>
+        <v>27633.903142660092</v>
       </c>
       <c r="E12" t="n">
-        <v>1450.4713727119288</v>
+        <v>1464.7331496356821</v>
       </c>
       <c r="F12" t="n">
-        <v>573.0441702529931</v>
+        <v>587.9321650843873</v>
       </c>
       <c r="G12" t="n">
-        <v>357.2433966446225</v>
+        <v>371.70348518492136</v>
       </c>
       <c r="H12" t="n">
-        <v>215.8007736083706</v>
+        <v>216.22867989946593</v>
       </c>
       <c r="I12" t="n">
-        <v>-877.4272024589358</v>
+        <v>-876.8009845512948</v>
       </c>
       <c r="J12" t="n">
-        <v>99.07567445402238</v>
+        <v>96.56422315032627</v>
       </c>
       <c r="K12" t="n">
-        <v>15.518232945035763</v>
+        <v>16.06548921863632</v>
       </c>
       <c r="L12" t="n">
-        <v>23.3671070308337</v>
+        <v>23.320293352162892</v>
       </c>
       <c r="M12" t="n">
-        <v>-3.097698064208524</v>
+        <v>-3.1729176295683157</v>
       </c>
       <c r="N12" t="n">
-        <v>12.304106086773077</v>
+        <v>11.943718332002755</v>
       </c>
     </row>
     <row r="13">
@@ -788,43 +788,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>2026.0</v>
+        <v>2027.0</v>
       </c>
       <c r="C13" t="n">
-        <v>29752.619688509436</v>
+        <v>29768.842705234438</v>
       </c>
       <c r="D13" t="n">
-        <v>29506.28740511467</v>
+        <v>28763.884819966956</v>
       </c>
       <c r="E13" t="n">
-        <v>1529.3231343564983</v>
+        <v>1541.8894066197404</v>
       </c>
       <c r="F13" t="n">
-        <v>544.4167135400322</v>
+        <v>607.1520966983798</v>
       </c>
       <c r="G13" t="n">
-        <v>320.16266165397144</v>
+        <v>382.78947749111137</v>
       </c>
       <c r="H13" t="n">
-        <v>224.25405188606086</v>
+        <v>224.36261920726838</v>
       </c>
       <c r="I13" t="n">
-        <v>-984.9064208164659</v>
+        <v>-934.7373099213607</v>
       </c>
       <c r="J13" t="n">
-        <v>99.17206522997412</v>
+        <v>96.624128471441</v>
       </c>
       <c r="K13" t="n">
-        <v>13.436348060915819</v>
+        <v>15.982559494284661</v>
       </c>
       <c r="L13" t="n">
-        <v>23.312198344243047</v>
+        <v>23.27397167789164</v>
       </c>
       <c r="M13" t="n">
-        <v>-3.3379544071198213</v>
+        <v>-3.249690769421022</v>
       </c>
       <c r="N13" t="n">
-        <v>12.382978874314324</v>
+        <v>12.009747588543584</v>
       </c>
     </row>
     <row r="14">
@@ -832,43 +832,43 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>2027.0</v>
+        <v>2028.0</v>
       </c>
       <c r="C14" t="n">
-        <v>30937.190624215702</v>
+        <v>30943.203525331468</v>
       </c>
       <c r="D14" t="n">
-        <v>30660.484558120566</v>
+        <v>29916.333573299016</v>
       </c>
       <c r="E14" t="n">
-        <v>1609.2853124592798</v>
+        <v>1619.8977529567956</v>
       </c>
       <c r="F14" t="n">
-        <v>561.7825855025714</v>
+        <v>658.3989619820342</v>
       </c>
       <c r="G14" t="n">
-        <v>329.0690727633427</v>
+        <v>425.5350343366391</v>
       </c>
       <c r="H14" t="n">
-        <v>232.71351273922863</v>
+        <v>232.8639276453951</v>
       </c>
       <c r="I14" t="n">
-        <v>-1047.5027269567083</v>
+        <v>-961.4987909747613</v>
       </c>
       <c r="J14" t="n">
-        <v>99.1055876098892</v>
+        <v>96.68143619586199</v>
       </c>
       <c r="K14" t="n">
-        <v>13.339553387099306</v>
+        <v>17.162586177173</v>
       </c>
       <c r="L14" t="n">
-        <v>23.263882615521844</v>
+        <v>23.23908612170699</v>
       </c>
       <c r="M14" t="n">
-        <v>-3.416458487376621</v>
+        <v>-3.213959319643768</v>
       </c>
       <c r="N14" t="n">
-        <v>12.428915522289829</v>
+        <v>12.065790396252464</v>
       </c>
     </row>
     <row r="15">
@@ -876,43 +876,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>2028.0</v>
+        <v>2029.0</v>
       </c>
       <c r="C15" t="n">
-        <v>32144.428992109555</v>
+        <v>32141.966397499393</v>
       </c>
       <c r="D15" t="n">
-        <v>31833.95546850115</v>
+        <v>31126.44739099857</v>
       </c>
       <c r="E15" t="n">
-        <v>1691.014755158958</v>
+        <v>1699.2955078347231</v>
       </c>
       <c r="F15" t="n">
-        <v>611.2223618699797</v>
+        <v>680.6335911667928</v>
       </c>
       <c r="G15" t="n">
-        <v>369.689384307981</v>
+        <v>438.95480533211776</v>
       </c>
       <c r="H15" t="n">
-        <v>241.5329775619987</v>
+        <v>241.67878583467512</v>
       </c>
       <c r="I15" t="n">
-        <v>-1079.792393288978</v>
+        <v>-1018.6619166679303</v>
       </c>
       <c r="J15" t="n">
-        <v>99.03412960396766</v>
+        <v>96.84051997957481</v>
       </c>
       <c r="K15" t="n">
-        <v>14.475957113887423</v>
+        <v>17.103835091969717</v>
       </c>
       <c r="L15" t="n">
-        <v>23.218591402403977</v>
+        <v>23.21238815272799</v>
       </c>
       <c r="M15" t="n">
-        <v>-3.391951698736916</v>
+        <v>-3.2726571840078225</v>
       </c>
       <c r="N15" t="n">
-        <v>12.465247683269116</v>
+        <v>12.12839264333159</v>
       </c>
     </row>
     <row r="16">
@@ -920,43 +920,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>2029.0</v>
+        <v>2030.0</v>
       </c>
       <c r="C16" t="n">
-        <v>33374.85254457048</v>
+        <v>33366.276031575915</v>
       </c>
       <c r="D16" t="n">
-        <v>33060.725305853084</v>
+        <v>32365.86938490544</v>
       </c>
       <c r="E16" t="n">
-        <v>1775.116873118303</v>
+        <v>1780.5328285543371</v>
       </c>
       <c r="F16" t="n">
-        <v>630.9660408763028</v>
+        <v>703.4085114597884</v>
       </c>
       <c r="G16" t="n">
-        <v>380.2415903040861</v>
+        <v>452.59067970319865</v>
       </c>
       <c r="H16" t="n">
-        <v>250.72445057221674</v>
+        <v>250.81783175658978</v>
       </c>
       <c r="I16" t="n">
-        <v>-1144.1508322420002</v>
+        <v>-1077.1243170945488</v>
       </c>
       <c r="J16" t="n">
-        <v>99.0587906319649</v>
+        <v>97.0017431800786</v>
       </c>
       <c r="K16" t="n">
-        <v>14.383785452325714</v>
+        <v>17.041307561582688</v>
       </c>
       <c r="L16" t="n">
-        <v>23.172250822721104</v>
+        <v>23.19003037121281</v>
       </c>
       <c r="M16" t="n">
-        <v>-3.46075538772115</v>
+        <v>-3.3279634922981245</v>
       </c>
       <c r="N16" t="n">
-        <v>12.506216884832863</v>
+        <v>12.186656937961873</v>
       </c>
     </row>
     <row r="17">
@@ -964,43 +964,43 @@
         <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>2030.0</v>
+        <v>2031.0</v>
       </c>
       <c r="C17" t="n">
-        <v>34628.22695627753</v>
+        <v>34616.756998663725</v>
       </c>
       <c r="D17" t="n">
-        <v>34310.31755913191</v>
+        <v>33635.400947896705</v>
       </c>
       <c r="E17" t="n">
-        <v>1861.988058206431</v>
+        <v>1864.1335786949594</v>
       </c>
       <c r="F17" t="n">
-        <v>650.8318279288866</v>
+        <v>732.3001389679346</v>
       </c>
       <c r="G17" t="n">
-        <v>391.79550319308686</v>
+        <v>472.6890700190959</v>
       </c>
       <c r="H17" t="n">
-        <v>259.03632473579967</v>
+        <v>259.61106894883875</v>
       </c>
       <c r="I17" t="n">
-        <v>-1211.1562302775444</v>
+        <v>-1131.8334397270248</v>
       </c>
       <c r="J17" t="n">
-        <v>99.0819356776567</v>
+        <v>97.16508380376327</v>
       </c>
       <c r="K17" t="n">
-        <v>14.322454551260282</v>
+        <v>17.20441966966431</v>
       </c>
       <c r="L17" t="n">
-        <v>23.12171489691118</v>
+        <v>23.16557670870889</v>
       </c>
       <c r="M17" t="n">
-        <v>-3.5300058887248262</v>
+        <v>-3.3650065342770974</v>
       </c>
       <c r="N17" t="n">
-        <v>12.542460540640663</v>
+        <v>12.242245280637903</v>
       </c>
     </row>
     <row r="18">
@@ -1008,43 +1008,43 @@
         <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>2031.0</v>
+        <v>2032.0</v>
       </c>
       <c r="C18" t="n">
-        <v>35903.64667364506</v>
+        <v>35893.27654641267</v>
       </c>
       <c r="D18" t="n">
-        <v>35581.598428518446</v>
+        <v>34941.3350712824</v>
       </c>
       <c r="E18" t="n">
-        <v>1949.4455463780573</v>
+        <v>1948.4164445916438</v>
       </c>
       <c r="F18" t="n">
-        <v>677.2992159812543</v>
+        <v>708.5356159344122</v>
       </c>
       <c r="G18" t="n">
-        <v>409.28535172296296</v>
+        <v>439.57311645203373</v>
       </c>
       <c r="H18" t="n">
-        <v>268.01386425829133</v>
+        <v>268.96249948237846</v>
       </c>
       <c r="I18" t="n">
-        <v>-1272.1463303968028</v>
+        <v>-1239.8808286572316</v>
       </c>
       <c r="J18" t="n">
-        <v>99.10302079325284</v>
+        <v>97.34785573588047</v>
       </c>
       <c r="K18" t="n">
-        <v>14.459689217961017</v>
+        <v>15.465701690785211</v>
       </c>
       <c r="L18" t="n">
-        <v>23.083072685749684</v>
+        <v>23.150713857686387</v>
       </c>
       <c r="M18" t="n">
-        <v>-3.5752928102779804</v>
+        <v>-3.5484643793026254</v>
       </c>
       <c r="N18" t="n">
-        <v>12.570663792114425</v>
+        <v>12.293569480589301</v>
       </c>
     </row>
     <row r="19">
@@ -1052,43 +1052,43 @@
         <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>2032.0</v>
+        <v>2033.0</v>
       </c>
       <c r="C19" t="n">
-        <v>37203.141666371994</v>
+        <v>37198.07459041055</v>
       </c>
       <c r="D19" t="n">
-        <v>36882.66100548077</v>
+        <v>36229.06331082205</v>
       </c>
       <c r="E19" t="n">
-        <v>2036.298893578212</v>
+        <v>2032.2368605134438</v>
       </c>
       <c r="F19" t="n">
-        <v>650.8624248504362</v>
+        <v>703.3430818944889</v>
       </c>
       <c r="G19" t="n">
-        <v>372.84757014125586</v>
+        <v>424.15549194372323</v>
       </c>
       <c r="H19" t="n">
-        <v>278.0148547091804</v>
+        <v>279.18758995076564</v>
       </c>
       <c r="I19" t="n">
-        <v>-1385.4364687277757</v>
+        <v>-1328.8937786189551</v>
       </c>
       <c r="J19" t="n">
-        <v>99.13856559812822</v>
+        <v>97.39499613821873</v>
       </c>
       <c r="K19" t="n">
-        <v>12.72973081783626</v>
+        <v>14.422736244264678</v>
       </c>
       <c r="L19" t="n">
-        <v>23.063830279312587</v>
+        <v>23.150227835962763</v>
       </c>
       <c r="M19" t="n">
-        <v>-3.756335445866826</v>
+        <v>-3.6680323949253157</v>
       </c>
       <c r="N19" t="n">
-        <v>12.592447532041056</v>
+        <v>12.319119625547152</v>
       </c>
     </row>
     <row r="20">
@@ -1096,43 +1096,43 @@
         <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>2033.0</v>
+        <v>2034.0</v>
       </c>
       <c r="C20" t="n">
-        <v>38530.548874453314</v>
+        <v>38535.15772945287</v>
       </c>
       <c r="D20" t="n">
-        <v>38159.516377009466</v>
+        <v>37517.682247118326</v>
       </c>
       <c r="E20" t="n">
-        <v>2122.836998121397</v>
+        <v>2116.1121733751424</v>
       </c>
       <c r="F20" t="n">
-        <v>643.0536105711842</v>
+        <v>841.0009019560378</v>
       </c>
       <c r="G20" t="n">
-        <v>354.5664400228446</v>
+        <v>551.1285612847089</v>
       </c>
       <c r="H20" t="n">
-        <v>288.4871705483396</v>
+        <v>289.8723406713289</v>
       </c>
       <c r="I20" t="n">
-        <v>-1479.7833875502129</v>
+        <v>-1275.111271419105</v>
       </c>
       <c r="J20" t="n">
-        <v>99.03704331165159</v>
+        <v>97.35961770423268</v>
       </c>
       <c r="K20" t="n">
-        <v>11.70174112753107</v>
+        <v>18.1117107261545</v>
       </c>
       <c r="L20" t="n">
-        <v>23.066955719892295</v>
+        <v>23.164045465686264</v>
       </c>
       <c r="M20" t="n">
-        <v>-3.877888212550199</v>
+        <v>-3.3986941491222957</v>
       </c>
       <c r="N20" t="n">
-        <v>12.593768946851744</v>
+        <v>12.329417412003073</v>
       </c>
     </row>
     <row r="21">
@@ -1140,43 +1140,43 @@
         <v>32</v>
       </c>
       <c r="B21" t="n">
-        <v>2034.0</v>
+        <v>2035.0</v>
       </c>
       <c r="C21" t="n">
-        <v>39889.646488650505</v>
+        <v>39908.207175757416</v>
       </c>
       <c r="D21" t="n">
-        <v>39430.712963668695</v>
+        <v>38960.763798876666</v>
       </c>
       <c r="E21" t="n">
-        <v>2209.4945958120375</v>
+        <v>2200.744985868243</v>
       </c>
       <c r="F21" t="n">
-        <v>779.2014516986602</v>
+        <v>910.0348930337045</v>
       </c>
       <c r="G21" t="n">
-        <v>479.8844383204537</v>
+        <v>609.0831254898482</v>
       </c>
       <c r="H21" t="n">
-        <v>299.3170133782065</v>
+        <v>300.95176754385636</v>
       </c>
       <c r="I21" t="n">
-        <v>-1430.2931441133771</v>
+        <v>-1290.7100928345387</v>
       </c>
       <c r="J21" t="n">
-        <v>98.84949212294384</v>
+        <v>97.62594352407733</v>
       </c>
       <c r="K21" t="n">
-        <v>15.317041442535963</v>
+        <v>19.347644699352504</v>
       </c>
       <c r="L21" t="n">
-        <v>23.094765407588657</v>
+        <v>23.19066955044707</v>
       </c>
       <c r="M21" t="n">
-        <v>-3.6273580582507945</v>
+        <v>-3.312845968568391</v>
       </c>
       <c r="N21" t="n">
-        <v>12.58556886501796</v>
+        <v>12.37596288010486</v>
       </c>
     </row>
     <row r="22">
@@ -1184,43 +1184,43 @@
         <v>33</v>
       </c>
       <c r="B22" t="n">
-        <v>2035.0</v>
+        <v>2036.0</v>
       </c>
       <c r="C22" t="n">
-        <v>41283.99168984241</v>
+        <v>41320.34213276642</v>
       </c>
       <c r="D22" t="n">
-        <v>40850.451306021976</v>
+        <v>40495.307733995294</v>
       </c>
       <c r="E22" t="n">
-        <v>2296.626347237027</v>
+        <v>2286.599519769328</v>
       </c>
       <c r="F22" t="n">
-        <v>845.7167911071311</v>
+        <v>934.8832993988576</v>
       </c>
       <c r="G22" t="n">
-        <v>536.3348378473457</v>
+        <v>623.7423036302816</v>
       </c>
       <c r="H22" t="n">
-        <v>309.38195325978535</v>
+        <v>311.140995768576</v>
       </c>
       <c r="I22" t="n">
-        <v>-1450.9095561298961</v>
+        <v>-1351.71622037047</v>
       </c>
       <c r="J22" t="n">
-        <v>98.94985836864437</v>
+        <v>98.00332147270163</v>
       </c>
       <c r="K22" t="n">
-        <v>16.56898738166654</v>
+        <v>19.159928053396815</v>
       </c>
       <c r="L22" t="n">
-        <v>23.148986663035576</v>
+        <v>23.232598749464106</v>
       </c>
       <c r="M22" t="n">
-        <v>-3.551758939603221</v>
+        <v>-3.337957644993327</v>
       </c>
       <c r="N22" t="n">
-        <v>12.619926293460543</v>
+        <v>12.439226555064868</v>
       </c>
     </row>
     <row r="23">
@@ -1228,43 +1228,43 @@
         <v>34</v>
       </c>
       <c r="B23" t="n">
-        <v>2036.0</v>
+        <v>2037.0</v>
       </c>
       <c r="C23" t="n">
-        <v>42716.94546213027</v>
+        <v>42774.32392271337</v>
       </c>
       <c r="D23" t="n">
-        <v>42354.50738113398</v>
+        <v>42079.36087714668</v>
       </c>
       <c r="E23" t="n">
-        <v>2383.872616496346</v>
+        <v>2372.5156509218978</v>
       </c>
       <c r="F23" t="n">
-        <v>834.8994509271135</v>
+        <v>1010.1509482474871</v>
       </c>
       <c r="G23" t="n">
-        <v>514.6402653612793</v>
+        <v>688.0112648519845</v>
       </c>
       <c r="H23" t="n">
-        <v>320.25918556583423</v>
+        <v>322.13968339550263</v>
       </c>
       <c r="I23" t="n">
-        <v>-1548.9731655692324</v>
+        <v>-1362.3647026744109</v>
       </c>
       <c r="J23" t="n">
-        <v>99.15153558599465</v>
+        <v>98.37527988327217</v>
       </c>
       <c r="K23" t="n">
-        <v>15.37451236240895</v>
+        <v>20.418704797269477</v>
       </c>
       <c r="L23" t="n">
-        <v>23.190462502906957</v>
+        <v>23.26289931580215</v>
       </c>
       <c r="M23" t="n">
-        <v>-3.657162510782013</v>
+        <v>-3.2376078777715267</v>
       </c>
       <c r="N23" t="n">
-        <v>12.653108222650532</v>
+        <v>12.48825552286668</v>
       </c>
     </row>
     <row r="24">
@@ -1272,43 +1272,43 @@
         <v>35</v>
       </c>
       <c r="B24" t="n">
-        <v>2037.0</v>
+        <v>2038.0</v>
       </c>
       <c r="C24" t="n">
-        <v>44192.54167572117</v>
+        <v>44274.57922149257</v>
       </c>
       <c r="D24" t="n">
-        <v>43865.94928173211</v>
+        <v>43770.770887557694</v>
       </c>
       <c r="E24" t="n">
-        <v>2471.786335205846</v>
+        <v>2459.534377032778</v>
       </c>
       <c r="F24" t="n">
-        <v>928.3998736921761</v>
+        <v>983.5936884428305</v>
       </c>
       <c r="G24" t="n">
-        <v>596.3257460114886</v>
+        <v>649.5446707326355</v>
       </c>
       <c r="H24" t="n">
-        <v>332.0741276806875</v>
+        <v>334.04901771019513</v>
       </c>
       <c r="I24" t="n">
-        <v>-1543.3864615136702</v>
+        <v>-1475.9406885899477</v>
       </c>
       <c r="J24" t="n">
-        <v>99.26097847825643</v>
+        <v>98.86208216363973</v>
       </c>
       <c r="K24" t="n">
-        <v>17.211937948127925</v>
+        <v>18.60806009612932</v>
       </c>
       <c r="L24" t="n">
-        <v>23.21770097078383</v>
+        <v>23.276741013285896</v>
       </c>
       <c r="M24" t="n">
-        <v>-3.5184157342661466</v>
+        <v>-3.371977825982269</v>
       </c>
       <c r="N24" t="n">
-        <v>12.661167191301411</v>
+        <v>12.53938600113371</v>
       </c>
     </row>
     <row r="25">
@@ -1316,43 +1316,43 @@
         <v>36</v>
       </c>
       <c r="B25" t="n">
-        <v>2038.0</v>
+        <v>2039.0</v>
       </c>
       <c r="C25" t="n">
-        <v>45714.543862667444</v>
+        <v>45824.6242405204</v>
       </c>
       <c r="D25" t="n">
-        <v>45496.755031734814</v>
+        <v>45466.94246389034</v>
       </c>
       <c r="E25" t="n">
-        <v>2560.957353805338</v>
+        <v>2548.3111540754676</v>
       </c>
       <c r="F25" t="n">
-        <v>918.8073073132596</v>
+        <v>1013.8764475661355</v>
       </c>
       <c r="G25" t="n">
-        <v>574.0640526934374</v>
+        <v>667.0607895887605</v>
       </c>
       <c r="H25" t="n">
-        <v>344.7432546198223</v>
+        <v>346.81565797737505</v>
       </c>
       <c r="I25" t="n">
-        <v>-1642.1500464920782</v>
+        <v>-1534.4347065093323</v>
       </c>
       <c r="J25" t="n">
-        <v>99.52358962262244</v>
+        <v>99.21945507997454</v>
       </c>
       <c r="K25" t="n">
-        <v>15.996419136198748</v>
+        <v>18.433865202918934</v>
       </c>
       <c r="L25" t="n">
-        <v>23.23199203759563</v>
+        <v>23.276857892756478</v>
       </c>
       <c r="M25" t="n">
-        <v>-3.6093783948913467</v>
+        <v>-3.374835921126595</v>
       </c>
       <c r="N25" t="n">
-        <v>12.677769308318675</v>
+        <v>12.564544366112852</v>
       </c>
     </row>
     <row r="26">
@@ -1360,43 +1360,43 @@
         <v>37</v>
       </c>
       <c r="B26" t="n">
-        <v>2039.0</v>
+        <v>2040.0</v>
       </c>
       <c r="C26" t="n">
-        <v>47286.362355625446</v>
+        <v>47427.52274577155</v>
       </c>
       <c r="D26" t="n">
-        <v>47143.700359135946</v>
+        <v>47227.44583918458</v>
       </c>
       <c r="E26" t="n">
-        <v>2652.3664349356545</v>
+        <v>2640.027272443591</v>
       </c>
       <c r="F26" t="n">
-        <v>966.4009723027077</v>
+        <v>986.1283979958937</v>
       </c>
       <c r="G26" t="n">
-        <v>608.1597750494386</v>
+        <v>625.7315663420171</v>
       </c>
       <c r="H26" t="n">
-        <v>358.2411972532691</v>
+        <v>360.3968316538766</v>
       </c>
       <c r="I26" t="n">
-        <v>-1685.965462632947</v>
+        <v>-1653.898874447697</v>
       </c>
       <c r="J26" t="n">
-        <v>99.69830202751362</v>
+        <v>99.57814177295437</v>
       </c>
       <c r="K26" t="n">
-        <v>16.349195289811455</v>
+        <v>16.670932770900084</v>
       </c>
       <c r="L26" t="n">
-        <v>23.232307808184533</v>
+        <v>23.26318949587862</v>
       </c>
       <c r="M26" t="n">
-        <v>-3.5762264094448093</v>
+        <v>-3.5019867051024347</v>
       </c>
       <c r="N26" t="n">
-        <v>12.673668918553702</v>
+        <v>12.582481320688697</v>
       </c>
     </row>
     <row r="27">
@@ -1404,43 +1404,43 @@
         <v>38</v>
       </c>
       <c r="B27" t="n">
-        <v>2040.0</v>
+        <v>2041.0</v>
       </c>
       <c r="C27" t="n">
-        <v>48910.559333952384</v>
+        <v>49085.212393973</v>
       </c>
       <c r="D27" t="n">
-        <v>48867.06501374072</v>
+        <v>48991.56298709215</v>
       </c>
       <c r="E27" t="n">
-        <v>2745.543876588697</v>
+        <v>2734.1470162273517</v>
       </c>
       <c r="F27" t="n">
-        <v>955.4622496344416</v>
+        <v>930.2364298795219</v>
       </c>
       <c r="G27" t="n">
-        <v>585.8827610554607</v>
+        <v>557.5080506366548</v>
       </c>
       <c r="H27" t="n">
-        <v>369.5794885789809</v>
+        <v>372.72837924286705</v>
       </c>
       <c r="I27" t="n">
-        <v>-1790.0816269542554</v>
+        <v>-1803.9105863478298</v>
       </c>
       <c r="J27" t="n">
-        <v>99.91107376238591</v>
+        <v>99.80921054974917</v>
       </c>
       <c r="K27" t="n">
-        <v>15.188685205750355</v>
+        <v>14.316495821343747</v>
       </c>
       <c r="L27" t="n">
-        <v>23.226882343745693</v>
+        <v>23.245622215575697</v>
       </c>
       <c r="M27" t="n">
-        <v>-3.663165828459127</v>
+        <v>-3.682084171968769</v>
       </c>
       <c r="N27" t="n">
-        <v>12.668515217712372</v>
+        <v>12.580760151980648</v>
       </c>
     </row>
     <row r="28">
@@ -1448,43 +1448,43 @@
         <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>2041.0</v>
+        <v>2042.0</v>
       </c>
       <c r="C28" t="n">
-        <v>50590.532731710955</v>
+        <v>50800.510023373696</v>
       </c>
       <c r="D28" t="n">
-        <v>50607.75714079545</v>
+        <v>50726.72633080015</v>
       </c>
       <c r="E28" t="n">
-        <v>2838.5131883020895</v>
+        <v>2829.082630771036</v>
       </c>
       <c r="F28" t="n">
-        <v>929.2274853023459</v>
+        <v>938.6974712325758</v>
       </c>
       <c r="G28" t="n">
-        <v>547.3500256972429</v>
+        <v>552.6182458105267</v>
       </c>
       <c r="H28" t="n">
-        <v>381.87745960510296</v>
+        <v>386.07922542204903</v>
       </c>
       <c r="I28" t="n">
-        <v>-1909.2857029997438</v>
+        <v>-1890.3851595384597</v>
       </c>
       <c r="J28" t="n">
-        <v>100.03404670430291</v>
+        <v>99.85475796888737</v>
       </c>
       <c r="K28" t="n">
-        <v>13.678855611490128</v>
+        <v>13.675206150857452</v>
       </c>
       <c r="L28" t="n">
-        <v>23.222376915918186</v>
+        <v>23.229203034304778</v>
       </c>
       <c r="M28" t="n">
-        <v>-3.77271353418792</v>
+        <v>-3.726605866916864</v>
       </c>
       <c r="N28" t="n">
-        <v>12.647413359823409</v>
+        <v>12.552941297013662</v>
       </c>
     </row>
     <row r="29">
@@ -1492,43 +1492,43 @@
         <v>40</v>
       </c>
       <c r="B29" t="n">
-        <v>2042.0</v>
+        <v>2043.0</v>
       </c>
       <c r="C29" t="n">
-        <v>52332.34055586456</v>
+        <v>52578.38422862289</v>
       </c>
       <c r="D29" t="n">
-        <v>52350.85679563039</v>
+        <v>52499.06675910632</v>
       </c>
       <c r="E29" t="n">
-        <v>2932.3152099575323</v>
+        <v>2925.2644306543857</v>
       </c>
       <c r="F29" t="n">
-        <v>963.9735576323936</v>
+        <v>973.6623206857465</v>
       </c>
       <c r="G29" t="n">
-        <v>568.7428997807696</v>
+        <v>573.1870626290362</v>
       </c>
       <c r="H29" t="n">
-        <v>395.230657851624</v>
+        <v>400.47525805671035</v>
       </c>
       <c r="I29" t="n">
-        <v>-1968.3416523251387</v>
+        <v>-1951.6021099686388</v>
       </c>
       <c r="J29" t="n">
-        <v>100.0353820210775</v>
+        <v>99.8491443381529</v>
       </c>
       <c r="K29" t="n">
-        <v>13.69955256838646</v>
+        <v>13.667928292582847</v>
       </c>
       <c r="L29" t="n">
-        <v>23.219641831854</v>
+        <v>23.217458397059875</v>
       </c>
       <c r="M29" t="n">
-        <v>-3.7599034147793207</v>
+        <v>-3.7174034329479206</v>
       </c>
       <c r="N29" t="n">
-        <v>12.609973943380378</v>
+        <v>12.518661475012772</v>
       </c>
     </row>
     <row r="30">
@@ -1536,43 +1536,43 @@
         <v>41</v>
       </c>
       <c r="B30" t="n">
-        <v>2043.0</v>
+        <v>2044.0</v>
       </c>
       <c r="C30" t="n">
-        <v>54141.298821304874</v>
+        <v>54423.79077755332</v>
       </c>
       <c r="D30" t="n">
-        <v>54161.20377905314</v>
+        <v>54338.524497823</v>
       </c>
       <c r="E30" t="n">
-        <v>3027.4034111434626</v>
+        <v>3023.2573129558127</v>
       </c>
       <c r="F30" t="n">
-        <v>1000.1532253091789</v>
+        <v>1010.0923916380395</v>
       </c>
       <c r="G30" t="n">
-        <v>590.5229300019868</v>
+        <v>594.2088448369352</v>
       </c>
       <c r="H30" t="n">
-        <v>409.6302953071921</v>
+        <v>415.88354680110444</v>
       </c>
       <c r="I30" t="n">
-        <v>-2027.250185834284</v>
+        <v>-2013.1649213177734</v>
       </c>
       <c r="J30" t="n">
-        <v>100.03676483235816</v>
+        <v>99.84332903218971</v>
       </c>
       <c r="K30" t="n">
-        <v>13.708409194851033</v>
+        <v>13.653518392453861</v>
       </c>
       <c r="L30" t="n">
-        <v>23.217573735946473</v>
+        <v>23.20954184230019</v>
       </c>
       <c r="M30" t="n">
-        <v>-3.7429932209489096</v>
+        <v>-3.7048575387769835</v>
       </c>
       <c r="N30" t="n">
-        <v>12.57299092325635</v>
+        <v>12.485711885581729</v>
       </c>
     </row>
     <row r="31">
@@ -1580,43 +1580,43 @@
         <v>42</v>
       </c>
       <c r="B31" t="n">
-        <v>2044.0</v>
+        <v>2045.0</v>
       </c>
       <c r="C31" t="n">
-        <v>56022.60228313088</v>
+        <v>56341.42279545321</v>
       </c>
       <c r="D31" t="n">
-        <v>56044.00011271027</v>
+        <v>56249.761544743116</v>
       </c>
       <c r="E31" t="n">
-        <v>3124.1426263382373</v>
+        <v>3123.4253718338528</v>
       </c>
       <c r="F31" t="n">
-        <v>1037.77686983856</v>
+        <v>1048.0076433550478</v>
       </c>
       <c r="G31" t="n">
-        <v>612.8315265902878</v>
+        <v>615.881480458045</v>
       </c>
       <c r="H31" t="n">
-        <v>424.9453432482723</v>
+        <v>432.1261628970028</v>
       </c>
       <c r="I31" t="n">
-        <v>-2086.365756499677</v>
+        <v>-2075.417728478805</v>
       </c>
       <c r="J31" t="n">
-        <v>100.03819499399769</v>
+        <v>99.83731108274831</v>
       </c>
       <c r="K31" t="n">
-        <v>13.711740261817166</v>
+        <v>13.64022011655429</v>
       </c>
       <c r="L31" t="n">
-        <v>23.21963912026572</v>
+        <v>23.210723804460926</v>
       </c>
       <c r="M31" t="n">
-        <v>-3.722728128441546</v>
+        <v>-3.6896471584647372</v>
       </c>
       <c r="N31" t="n">
-        <v>12.539511096211836</v>
+        <v>12.457902263977134</v>
       </c>
     </row>
   </sheetData>
@@ -1679,43 +1679,43 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="C2" t="n">
-        <v>18217.847796340335</v>
+        <v>18735.619219568038</v>
       </c>
       <c r="D2" t="n">
-        <v>17234.084015337954</v>
+        <v>17049.413489806917</v>
       </c>
       <c r="E2" t="n">
-        <v>861.9304279160804</v>
+        <v>905.7444929012577</v>
       </c>
       <c r="F2" t="n">
-        <v>575.325280451873</v>
+        <v>564.5035954737891</v>
       </c>
       <c r="G2" t="n">
-        <v>441.1060919449428</v>
+        <v>430.051833143195</v>
       </c>
       <c r="H2" t="n">
-        <v>134.21918850693024</v>
+        <v>134.45176233059414</v>
       </c>
       <c r="I2" t="n">
-        <v>-286.6051474642073</v>
+        <v>-341.24089742746855</v>
       </c>
       <c r="J2" t="n">
-        <v>94.6000000000001</v>
+        <v>90.9999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>31.469219085978793</v>
+        <v>30.778119227237926</v>
       </c>
       <c r="L2" t="n">
-        <v>28.233351474359893</v>
+        <v>28.190093731304653</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.6630135213982653</v>
+        <v>-2.0014817379582075</v>
       </c>
       <c r="N2" t="n">
-        <v>12.295073124778526</v>
+        <v>12.201991497360494</v>
       </c>
     </row>
     <row r="3">
@@ -1726,40 +1726,40 @@
         <v>2020.0</v>
       </c>
       <c r="C3" t="n">
-        <v>23107.940679362855</v>
+        <v>22259.454567716184</v>
       </c>
       <c r="D3" t="n">
-        <v>22389.907419817868</v>
+        <v>20861.519802402076</v>
       </c>
       <c r="E3" t="n">
-        <v>1093.4701160118484</v>
+        <v>1130.3223404283374</v>
       </c>
       <c r="F3" t="n">
-        <v>591.0792899188114</v>
+        <v>598.5517691032122</v>
       </c>
       <c r="G3" t="n">
-        <v>409.3771693999758</v>
+        <v>422.8594549446894</v>
       </c>
       <c r="H3" t="n">
-        <v>181.70212051883559</v>
+        <v>175.6923141585228</v>
       </c>
       <c r="I3" t="n">
-        <v>-502.3908260930371</v>
+        <v>-531.770571325125</v>
       </c>
       <c r="J3" t="n">
-        <v>96.89269905307391</v>
+        <v>93.71981572566649</v>
       </c>
       <c r="K3" t="n">
-        <v>21.170982930178873</v>
+        <v>23.00733743885847</v>
       </c>
       <c r="L3" t="n">
-        <v>23.785146651455086</v>
+        <v>24.258590191472162</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.243827170309594</v>
+        <v>-2.549050003844375</v>
       </c>
       <c r="N3" t="n">
-        <v>11.578963929229744</v>
+        <v>11.350533137400774</v>
       </c>
     </row>
     <row r="4">
@@ -1770,40 +1770,40 @@
         <v>2025.0</v>
       </c>
       <c r="C4" t="n">
-        <v>28589.39550259011</v>
+        <v>27488.57721155135</v>
       </c>
       <c r="D4" t="n">
-        <v>28325.136416519093</v>
+        <v>26482.31293644525</v>
       </c>
       <c r="E4" t="n">
-        <v>1450.4713727119288</v>
+        <v>1390.3970510152283</v>
       </c>
       <c r="F4" t="n">
-        <v>573.0441702529931</v>
+        <v>614.0405263468054</v>
       </c>
       <c r="G4" t="n">
-        <v>357.2433966446225</v>
+        <v>405.64070304234826</v>
       </c>
       <c r="H4" t="n">
-        <v>215.8007736083706</v>
+        <v>208.39982330445721</v>
       </c>
       <c r="I4" t="n">
-        <v>-877.4272024589358</v>
+        <v>-776.3565246684228</v>
       </c>
       <c r="J4" t="n">
-        <v>99.07567445402238</v>
+        <v>96.33933663658955</v>
       </c>
       <c r="K4" t="n">
-        <v>15.518232945035763</v>
+        <v>18.160000792548903</v>
       </c>
       <c r="L4" t="n">
-        <v>23.3671070308337</v>
+        <v>23.387160109164054</v>
       </c>
       <c r="M4" t="n">
-        <v>-3.097698064208524</v>
+        <v>-2.93160392195197</v>
       </c>
       <c r="N4" t="n">
-        <v>12.304106086773077</v>
+        <v>11.855783216709561</v>
       </c>
     </row>
     <row r="5">
@@ -1814,40 +1814,40 @@
         <v>2030.0</v>
       </c>
       <c r="C5" t="n">
-        <v>34628.22695627753</v>
+        <v>33366.276031575915</v>
       </c>
       <c r="D5" t="n">
-        <v>34310.31755913191</v>
+        <v>32365.86938490544</v>
       </c>
       <c r="E5" t="n">
-        <v>1861.988058206431</v>
+        <v>1780.5328285543371</v>
       </c>
       <c r="F5" t="n">
-        <v>650.8318279288866</v>
+        <v>703.4085114597884</v>
       </c>
       <c r="G5" t="n">
-        <v>391.79550319308686</v>
+        <v>452.59067970319865</v>
       </c>
       <c r="H5" t="n">
-        <v>259.03632473579967</v>
+        <v>250.81783175658978</v>
       </c>
       <c r="I5" t="n">
-        <v>-1211.1562302775444</v>
+        <v>-1077.1243170945488</v>
       </c>
       <c r="J5" t="n">
-        <v>99.0819356776567</v>
+        <v>97.0017431800786</v>
       </c>
       <c r="K5" t="n">
-        <v>14.322454551260282</v>
+        <v>17.041307561582688</v>
       </c>
       <c r="L5" t="n">
-        <v>23.12171489691118</v>
+        <v>23.19003037121281</v>
       </c>
       <c r="M5" t="n">
-        <v>-3.5300058887248262</v>
+        <v>-3.3279634922981245</v>
       </c>
       <c r="N5" t="n">
-        <v>12.542460540640663</v>
+        <v>12.186656937961873</v>
       </c>
     </row>
     <row r="6">
@@ -1858,40 +1858,40 @@
         <v>2035.0</v>
       </c>
       <c r="C6" t="n">
-        <v>41283.99168984241</v>
+        <v>39908.207175757416</v>
       </c>
       <c r="D6" t="n">
-        <v>40850.451306021976</v>
+        <v>38960.763798876666</v>
       </c>
       <c r="E6" t="n">
-        <v>2296.626347237027</v>
+        <v>2200.744985868243</v>
       </c>
       <c r="F6" t="n">
-        <v>845.7167911071311</v>
+        <v>910.0348930337045</v>
       </c>
       <c r="G6" t="n">
-        <v>536.3348378473457</v>
+        <v>609.0831254898482</v>
       </c>
       <c r="H6" t="n">
-        <v>309.38195325978535</v>
+        <v>300.95176754385636</v>
       </c>
       <c r="I6" t="n">
-        <v>-1450.9095561298961</v>
+        <v>-1290.7100928345387</v>
       </c>
       <c r="J6" t="n">
-        <v>98.94985836864437</v>
+        <v>97.62594352407733</v>
       </c>
       <c r="K6" t="n">
-        <v>16.56898738166654</v>
+        <v>19.347644699352504</v>
       </c>
       <c r="L6" t="n">
-        <v>23.148986663035576</v>
+        <v>23.19066955044707</v>
       </c>
       <c r="M6" t="n">
-        <v>-3.551758939603221</v>
+        <v>-3.312845968568391</v>
       </c>
       <c r="N6" t="n">
-        <v>12.619926293460543</v>
+        <v>12.37596288010486</v>
       </c>
     </row>
     <row r="7">
@@ -1902,40 +1902,40 @@
         <v>2040.0</v>
       </c>
       <c r="C7" t="n">
-        <v>48910.559333952384</v>
+        <v>47427.52274577155</v>
       </c>
       <c r="D7" t="n">
-        <v>48867.06501374072</v>
+        <v>47227.44583918458</v>
       </c>
       <c r="E7" t="n">
-        <v>2745.543876588697</v>
+        <v>2640.027272443591</v>
       </c>
       <c r="F7" t="n">
-        <v>955.4622496344416</v>
+        <v>986.1283979958937</v>
       </c>
       <c r="G7" t="n">
-        <v>585.8827610554607</v>
+        <v>625.7315663420171</v>
       </c>
       <c r="H7" t="n">
-        <v>369.5794885789809</v>
+        <v>360.3968316538766</v>
       </c>
       <c r="I7" t="n">
-        <v>-1790.0816269542554</v>
+        <v>-1653.898874447697</v>
       </c>
       <c r="J7" t="n">
-        <v>99.91107376238591</v>
+        <v>99.57814177295437</v>
       </c>
       <c r="K7" t="n">
-        <v>15.188685205750355</v>
+        <v>16.670932770900084</v>
       </c>
       <c r="L7" t="n">
-        <v>23.226882343745693</v>
+        <v>23.26318949587862</v>
       </c>
       <c r="M7" t="n">
-        <v>-3.663165828459127</v>
+        <v>-3.5019867051024347</v>
       </c>
       <c r="N7" t="n">
-        <v>12.668515217712372</v>
+        <v>12.582481320688697</v>
       </c>
     </row>
     <row r="8">
@@ -1943,43 +1943,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>2044.0</v>
+        <v>2045.0</v>
       </c>
       <c r="C8" t="n">
-        <v>56022.60228313088</v>
+        <v>56341.42279545321</v>
       </c>
       <c r="D8" t="n">
-        <v>56044.00011271027</v>
+        <v>56249.761544743116</v>
       </c>
       <c r="E8" t="n">
-        <v>3124.1426263382373</v>
+        <v>3123.4253718338528</v>
       </c>
       <c r="F8" t="n">
-        <v>1037.77686983856</v>
+        <v>1048.0076433550478</v>
       </c>
       <c r="G8" t="n">
-        <v>612.8315265902878</v>
+        <v>615.881480458045</v>
       </c>
       <c r="H8" t="n">
-        <v>424.9453432482723</v>
+        <v>432.1261628970028</v>
       </c>
       <c r="I8" t="n">
-        <v>-2086.365756499677</v>
+        <v>-2075.417728478805</v>
       </c>
       <c r="J8" t="n">
-        <v>100.03819499399769</v>
+        <v>99.83731108274831</v>
       </c>
       <c r="K8" t="n">
-        <v>13.711740261817166</v>
+        <v>13.64022011655429</v>
       </c>
       <c r="L8" t="n">
-        <v>23.21963912026572</v>
+        <v>23.210723804460926</v>
       </c>
       <c r="M8" t="n">
-        <v>-3.722728128441546</v>
+        <v>-3.6896471584647372</v>
       </c>
       <c r="N8" t="n">
-        <v>12.539511096211836</v>
+        <v>12.457902263977134</v>
       </c>
     </row>
   </sheetData>
@@ -2054,49 +2054,49 @@
         <v>59</v>
       </c>
       <c r="C2" t="n">
-        <v>3.1984007996001997</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="D2" t="n">
-        <v>4.047976011994003</v>
+        <v>4.297851074462769</v>
       </c>
       <c r="E2" t="n">
-        <v>7.496251874062969</v>
+        <v>8.295852073963019</v>
       </c>
       <c r="F2" t="n">
-        <v>14.492753623188406</v>
+        <v>15.092453773113442</v>
       </c>
       <c r="G2" t="n">
-        <v>12.893553223388306</v>
+        <v>13.493253373313344</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1984007996001997</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="I2" t="n">
-        <v>4.047976011994003</v>
+        <v>4.297851074462769</v>
       </c>
       <c r="J2" t="n">
-        <v>7.496251874062969</v>
+        <v>8.295852073963019</v>
       </c>
       <c r="K2" t="n">
-        <v>14.492753623188406</v>
+        <v>15.092453773113442</v>
       </c>
       <c r="L2" t="n">
-        <v>12.893553223388306</v>
+        <v>13.493253373313344</v>
       </c>
       <c r="M2" t="n">
-        <v>3.1984007996001997</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="N2" t="n">
-        <v>4.047976011994003</v>
+        <v>4.297851074462769</v>
       </c>
       <c r="O2" t="n">
-        <v>7.496251874062969</v>
+        <v>8.295852073963019</v>
       </c>
       <c r="P2" t="n">
-        <v>14.492753623188406</v>
+        <v>15.092453773113442</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.893553223388306</v>
+        <v>13.493253373313344</v>
       </c>
     </row>
     <row r="3">
@@ -2107,49 +2107,49 @@
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>63.06846576711644</v>
+        <v>64.51774112943528</v>
       </c>
       <c r="D3" t="n">
-        <v>67.31634182908546</v>
+        <v>70.21489255372313</v>
       </c>
       <c r="E3" t="n">
-        <v>79.06046976511745</v>
+        <v>80.55972013993004</v>
       </c>
       <c r="F3" t="n">
-        <v>71.31434282858571</v>
+        <v>72.8135932033983</v>
       </c>
       <c r="G3" t="n">
-        <v>81.45927036481758</v>
+        <v>82.95852073963019</v>
       </c>
       <c r="H3" t="n">
-        <v>59.72013993003498</v>
+        <v>61.11944027986007</v>
       </c>
       <c r="I3" t="n">
-        <v>63.71814092953523</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="J3" t="n">
-        <v>75.61219390304848</v>
+        <v>77.96101949025487</v>
       </c>
       <c r="K3" t="n">
-        <v>69.81509245377312</v>
+        <v>70.86456771614193</v>
       </c>
       <c r="L3" t="n">
-        <v>79.11044477761119</v>
+        <v>80.15992003998001</v>
       </c>
       <c r="M3" t="n">
-        <v>20.239880059970016</v>
+        <v>18.54072963518241</v>
       </c>
       <c r="N3" t="n">
-        <v>14.3928035982009</v>
+        <v>13.393303348325837</v>
       </c>
       <c r="O3" t="n">
-        <v>10.544727636181909</v>
+        <v>9.095452273863069</v>
       </c>
       <c r="P3" t="n">
-        <v>28.435782108945528</v>
+        <v>27.08645677161419</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.43928035982009</v>
+        <v>20.189905047476262</v>
       </c>
     </row>
     <row r="4">
@@ -2160,34 +2160,34 @@
         <v>61</v>
       </c>
       <c r="C4" t="n">
-        <v>30.984507746126937</v>
+        <v>32.8335832083958</v>
       </c>
       <c r="D4" t="n">
-        <v>38.08095952023988</v>
+        <v>40.72963518240879</v>
       </c>
       <c r="E4" t="n">
-        <v>51.97401299350325</v>
+        <v>54.27286356821589</v>
       </c>
       <c r="F4" t="n">
-        <v>50.4247876061969</v>
+        <v>52.47376311844078</v>
       </c>
       <c r="G4" t="n">
-        <v>56.571714142928535</v>
+        <v>58.07096451774113</v>
       </c>
       <c r="H4" t="n">
-        <v>26.036981509245376</v>
+        <v>27.636181909045476</v>
       </c>
       <c r="I4" t="n">
-        <v>32.03398300849575</v>
+        <v>34.832583708145926</v>
       </c>
       <c r="J4" t="n">
-        <v>45.92703648175912</v>
+        <v>48.32583708145927</v>
       </c>
       <c r="K4" t="n">
-        <v>45.67716141929036</v>
+        <v>48.0759620189905</v>
       </c>
       <c r="L4" t="n">
-        <v>49.87506246876562</v>
+        <v>51.9240379810095</v>
       </c>
       <c r="M4" t="n">
         <v>0.0</v>
@@ -2292,19 +2292,19 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.747626186906547</v>
+        <v>4.997501249375312</v>
       </c>
       <c r="I2" t="n">
-        <v>4.897551224387806</v>
+        <v>4.997501249375312</v>
       </c>
       <c r="J2" t="n">
-        <v>5.347326336831585</v>
+        <v>5.59720139930035</v>
       </c>
       <c r="K2" t="n">
-        <v>11.994002998500749</v>
+        <v>12.493753123438282</v>
       </c>
       <c r="L2" t="n">
-        <v>13.943028485757122</v>
+        <v>14.592703648175911</v>
       </c>
       <c r="M2" t="n">
         <v>100.0</v>
@@ -2330,49 +2330,49 @@
         <v>63</v>
       </c>
       <c r="C3" t="n">
-        <v>9.507898858448504</v>
+        <v>9.570503687906626</v>
       </c>
       <c r="D3" t="n">
-        <v>9.507898858448504</v>
+        <v>9.570503687906626</v>
       </c>
       <c r="E3" t="n">
-        <v>9.507898858448504</v>
+        <v>9.570503687906626</v>
       </c>
       <c r="F3" t="n">
-        <v>9.507898858448504</v>
+        <v>9.570503687906626</v>
       </c>
       <c r="G3" t="n">
-        <v>9.507898858448504</v>
+        <v>9.570503687906626</v>
       </c>
       <c r="H3" t="n">
-        <v>15.876655277095423</v>
+        <v>15.942342822193853</v>
       </c>
       <c r="I3" t="n">
-        <v>16.20603702879181</v>
+        <v>16.146524288893186</v>
       </c>
       <c r="J3" t="n">
-        <v>16.696975459214272</v>
+        <v>16.76974500072437</v>
       </c>
       <c r="K3" t="n">
-        <v>15.798828077014075</v>
+        <v>15.975542848172623</v>
       </c>
       <c r="L3" t="n">
-        <v>19.327900164312137</v>
+        <v>19.31056546365205</v>
       </c>
       <c r="M3" t="n">
-        <v>35.58942756269336</v>
+        <v>34.973464336075786</v>
       </c>
       <c r="N3" t="n">
-        <v>34.70299684258166</v>
+        <v>34.37131857585894</v>
       </c>
       <c r="O3" t="n">
-        <v>42.123551802056056</v>
+        <v>41.009439850450164</v>
       </c>
       <c r="P3" t="n">
-        <v>44.12255125271142</v>
+        <v>43.36049071296162</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.786050736833246</v>
+        <v>52.862092629408565</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Graphs_report2/tables.xlsx
+++ b/Results/Graphs_report2/tables.xlsx
@@ -307,40 +307,40 @@
         <v>2016.0</v>
       </c>
       <c r="C2" t="n">
-        <v>18735.619219568038</v>
+        <v>18808.24945460566</v>
       </c>
       <c r="D2" t="n">
-        <v>17049.413489806917</v>
+        <v>17115.50700369115</v>
       </c>
       <c r="E2" t="n">
-        <v>905.7444929012577</v>
+        <v>941.5021499815762</v>
       </c>
       <c r="F2" t="n">
-        <v>564.5035954737891</v>
+        <v>565.4443227408146</v>
       </c>
       <c r="G2" t="n">
-        <v>430.051833143195</v>
+        <v>430.79670933617746</v>
       </c>
       <c r="H2" t="n">
-        <v>134.45176233059414</v>
+        <v>134.64761340463724</v>
       </c>
       <c r="I2" t="n">
-        <v>-341.24089742746855</v>
+        <v>-376.0578272407615</v>
       </c>
       <c r="J2" t="n">
-        <v>90.9999999999999</v>
+        <v>90.99999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>30.778119227237926</v>
+        <v>30.831428820431803</v>
       </c>
       <c r="L2" t="n">
-        <v>28.190093731304653</v>
+        <v>28.0183966145994</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.0014817379582075</v>
+        <v>-2.197176088091696</v>
       </c>
       <c r="N2" t="n">
-        <v>12.201991497360494</v>
+        <v>12.249293564081338</v>
       </c>
     </row>
     <row r="3">
@@ -351,40 +351,40 @@
         <v>2017.0</v>
       </c>
       <c r="C3" t="n">
-        <v>19573.444781083057</v>
+        <v>19598.133175091632</v>
       </c>
       <c r="D3" t="n">
-        <v>17961.285536807907</v>
+        <v>17994.90786468417</v>
       </c>
       <c r="E3" t="n">
-        <v>958.5703259244088</v>
+        <v>995.7324285545587</v>
       </c>
       <c r="F3" t="n">
-        <v>565.6289448193611</v>
+        <v>565.3870222902923</v>
       </c>
       <c r="G3" t="n">
-        <v>419.9912721929643</v>
+        <v>419.537204474345</v>
       </c>
       <c r="H3" t="n">
-        <v>145.63767262639678</v>
+        <v>145.84981781594723</v>
       </c>
       <c r="I3" t="n">
-        <v>-392.9413811050477</v>
+        <v>-430.3454062642665</v>
       </c>
       <c r="J3" t="n">
-        <v>91.76353849664098</v>
+        <v>91.81949986723696</v>
       </c>
       <c r="K3" t="n">
-        <v>27.743296247899067</v>
+        <v>27.7133019692835</v>
       </c>
       <c r="L3" t="n">
-        <v>26.8141360581991</v>
+        <v>26.650003021397747</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.187713013635891</v>
+        <v>-2.391484354909308</v>
       </c>
       <c r="N3" t="n">
-        <v>11.864657640119269</v>
+        <v>11.886867487432157</v>
       </c>
     </row>
     <row r="4">
@@ -395,40 +395,40 @@
         <v>2018.0</v>
       </c>
       <c r="C4" t="n">
-        <v>20439.44456749203</v>
+        <v>20417.63913142694</v>
       </c>
       <c r="D4" t="n">
-        <v>18885.969967380577</v>
+        <v>18881.904642801397</v>
       </c>
       <c r="E4" t="n">
-        <v>1013.0539436547016</v>
+        <v>1052.632793108384</v>
       </c>
       <c r="F4" t="n">
-        <v>604.4142710744418</v>
+        <v>604.110163995025</v>
       </c>
       <c r="G4" t="n">
-        <v>449.4439885008563</v>
+        <v>448.9141417527234</v>
       </c>
       <c r="H4" t="n">
-        <v>154.97028257358554</v>
+        <v>155.19602224230164</v>
       </c>
       <c r="I4" t="n">
-        <v>-408.6396725802598</v>
+        <v>-448.5226291133591</v>
       </c>
       <c r="J4" t="n">
-        <v>92.39962419241958</v>
+        <v>92.47839341884685</v>
       </c>
       <c r="K4" t="n">
-        <v>27.8328850518595</v>
+        <v>27.80007303520516</v>
       </c>
       <c r="L4" t="n">
-        <v>25.926742990702262</v>
+        <v>25.76727266293694</v>
       </c>
       <c r="M4" t="n">
-        <v>-2.1637208641444046</v>
+        <v>-2.3754098836864714</v>
       </c>
       <c r="N4" t="n">
-        <v>11.695584870281845</v>
+        <v>11.693067321608247</v>
       </c>
     </row>
     <row r="5">
@@ -439,40 +439,40 @@
         <v>2019.0</v>
       </c>
       <c r="C5" t="n">
-        <v>21334.730186869554</v>
+        <v>21266.91181625146</v>
       </c>
       <c r="D5" t="n">
-        <v>19863.13006691034</v>
+        <v>19815.885664714642</v>
       </c>
       <c r="E5" t="n">
-        <v>1070.0787755560543</v>
+        <v>1112.2402076559165</v>
       </c>
       <c r="F5" t="n">
-        <v>613.0136411127614</v>
+        <v>612.4591967724776</v>
       </c>
       <c r="G5" t="n">
-        <v>448.02949834502203</v>
+        <v>447.2347275039841</v>
       </c>
       <c r="H5" t="n">
-        <v>164.98414276773934</v>
+        <v>165.2244692684935</v>
       </c>
       <c r="I5" t="n">
-        <v>-457.06513444329295</v>
+        <v>-499.78101088343885</v>
       </c>
       <c r="J5" t="n">
-        <v>93.10232608020078</v>
+        <v>93.17707166854375</v>
       </c>
       <c r="K5" t="n">
-        <v>26.006956930980188</v>
+        <v>25.960822533336227</v>
       </c>
       <c r="L5" t="n">
-        <v>25.077026419130274</v>
+        <v>24.922046971931103</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.3010730579905445</v>
+        <v>-2.52212300444072</v>
       </c>
       <c r="N5" t="n">
-        <v>11.53003474264061</v>
+        <v>11.502610585577916</v>
       </c>
     </row>
     <row r="6">
@@ -483,40 +483,40 @@
         <v>2020.0</v>
       </c>
       <c r="C6" t="n">
-        <v>22259.454567716184</v>
+        <v>22145.98305473206</v>
       </c>
       <c r="D6" t="n">
-        <v>20861.519802402076</v>
+        <v>20764.81250286854</v>
       </c>
       <c r="E6" t="n">
-        <v>1130.3223404283374</v>
+        <v>1175.2230482246478</v>
       </c>
       <c r="F6" t="n">
-        <v>598.5517691032122</v>
+        <v>597.7067774277064</v>
       </c>
       <c r="G6" t="n">
-        <v>422.8594549446894</v>
+        <v>421.75853855810044</v>
       </c>
       <c r="H6" t="n">
-        <v>175.6923141585228</v>
+        <v>175.9482388696059</v>
       </c>
       <c r="I6" t="n">
-        <v>-531.770571325125</v>
+        <v>-577.5162707969414</v>
       </c>
       <c r="J6" t="n">
-        <v>93.71981572566649</v>
+        <v>93.76333600341837</v>
       </c>
       <c r="K6" t="n">
-        <v>23.00733743885847</v>
+        <v>22.947437738137495</v>
       </c>
       <c r="L6" t="n">
-        <v>24.258590191472162</v>
+        <v>24.1079622858802</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.549050003844375</v>
+        <v>-2.781225550277234</v>
       </c>
       <c r="N6" t="n">
-        <v>11.350533137400774</v>
+        <v>11.297915714586852</v>
       </c>
     </row>
     <row r="7">
@@ -527,40 +527,40 @@
         <v>2021.0</v>
       </c>
       <c r="C7" t="n">
-        <v>23212.952158169173</v>
+        <v>23054.07597496115</v>
       </c>
       <c r="D7" t="n">
-        <v>21854.480423407724</v>
+        <v>21701.343449476968</v>
       </c>
       <c r="E7" t="n">
-        <v>1117.442344969139</v>
+        <v>1109.4318952499386</v>
       </c>
       <c r="F7" t="n">
-        <v>625.4401483062393</v>
+        <v>625.3425445790147</v>
       </c>
       <c r="G7" t="n">
-        <v>442.6648276002358</v>
+        <v>442.3009815995866</v>
       </c>
       <c r="H7" t="n">
-        <v>182.77532070600344</v>
+        <v>183.04156297942802</v>
       </c>
       <c r="I7" t="n">
-        <v>-492.0021966628996</v>
+        <v>-484.0893506709241</v>
       </c>
       <c r="J7" t="n">
-        <v>94.14778557460055</v>
+        <v>94.13234984150573</v>
       </c>
       <c r="K7" t="n">
-        <v>22.88584118480187</v>
+        <v>22.867030289362706</v>
       </c>
       <c r="L7" t="n">
-        <v>23.784066188117748</v>
+        <v>23.635688236062155</v>
       </c>
       <c r="M7" t="n">
-        <v>-2.251264670359904</v>
+        <v>-2.2306883986142862</v>
       </c>
       <c r="N7" t="n">
-        <v>11.298800739555395</v>
+        <v>11.219628683263961</v>
       </c>
     </row>
     <row r="8">
@@ -571,40 +571,40 @@
         <v>2022.0</v>
       </c>
       <c r="C8" t="n">
-        <v>24247.21450756656</v>
+        <v>24081.94862523847</v>
       </c>
       <c r="D8" t="n">
-        <v>22964.664093750685</v>
+        <v>22808.548156216497</v>
       </c>
       <c r="E8" t="n">
-        <v>1183.1880745137273</v>
+        <v>1175.412669085897</v>
       </c>
       <c r="F8" t="n">
-        <v>657.2141647845392</v>
+        <v>657.1484395318587</v>
       </c>
       <c r="G8" t="n">
-        <v>468.8483764286814</v>
+        <v>468.508265468272</v>
       </c>
       <c r="H8" t="n">
-        <v>188.3657883558579</v>
+        <v>188.6401740635867</v>
       </c>
       <c r="I8" t="n">
-        <v>-525.9739097291882</v>
+        <v>-518.2642295540383</v>
       </c>
       <c r="J8" t="n">
-        <v>94.71052473505506</v>
+        <v>94.71221997505879</v>
       </c>
       <c r="K8" t="n">
-        <v>23.382532136639707</v>
+        <v>23.36557003148671</v>
       </c>
       <c r="L8" t="n">
-        <v>23.660173718986304</v>
+        <v>23.51187112057749</v>
       </c>
       <c r="M8" t="n">
-        <v>-2.290361868921567</v>
+        <v>-2.272236821056867</v>
       </c>
       <c r="N8" t="n">
-        <v>11.452998947538058</v>
+        <v>11.375140387927791</v>
       </c>
     </row>
     <row r="9">
@@ -615,40 +615,40 @@
         <v>2023.0</v>
       </c>
       <c r="C9" t="n">
-        <v>25303.825002601327</v>
+        <v>25131.326067756054</v>
       </c>
       <c r="D9" t="n">
-        <v>24121.591947823108</v>
+        <v>23962.055221162143</v>
       </c>
       <c r="E9" t="n">
-        <v>1250.1529649416304</v>
+        <v>1242.6036040966649</v>
       </c>
       <c r="F9" t="n">
-        <v>679.2103955406075</v>
+        <v>679.1400331900317</v>
       </c>
       <c r="G9" t="n">
-        <v>484.6714034656001</v>
+        <v>484.3176631221983</v>
       </c>
       <c r="H9" t="n">
-        <v>194.53899207500734</v>
+        <v>194.8223700678333</v>
       </c>
       <c r="I9" t="n">
-        <v>-570.9425694010229</v>
+        <v>-563.4635709066332</v>
       </c>
       <c r="J9" t="n">
-        <v>95.32784843929055</v>
+        <v>95.34735714525597</v>
       </c>
       <c r="K9" t="n">
-        <v>23.3141198933075</v>
+        <v>23.29710394246287</v>
       </c>
       <c r="L9" t="n">
-        <v>23.55508140034815</v>
+        <v>23.406768981780985</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.3669356924535347</v>
+        <v>-2.351482649155274</v>
       </c>
       <c r="N9" t="n">
-        <v>11.603195127003271</v>
+        <v>11.5264532696095</v>
       </c>
     </row>
     <row r="10">
@@ -659,40 +659,40 @@
         <v>2024.0</v>
       </c>
       <c r="C10" t="n">
-        <v>26384.104184307056</v>
+        <v>26203.468920275096</v>
       </c>
       <c r="D10" t="n">
-        <v>25316.94808180374</v>
+        <v>25153.486024024678</v>
       </c>
       <c r="E10" t="n">
-        <v>1319.0528795659518</v>
+        <v>1311.7098607076914</v>
       </c>
       <c r="F10" t="n">
-        <v>636.8145060833733</v>
+        <v>635.4574817971939</v>
       </c>
       <c r="G10" t="n">
-        <v>435.5818384717103</v>
+        <v>433.93168575492393</v>
       </c>
       <c r="H10" t="n">
-        <v>201.23266761166303</v>
+        <v>201.52579604226997</v>
       </c>
       <c r="I10" t="n">
-        <v>-682.2383734825785</v>
+        <v>-676.2523789104976</v>
       </c>
       <c r="J10" t="n">
-        <v>95.9553066685583</v>
+        <v>95.99296223166104</v>
       </c>
       <c r="K10" t="n">
-        <v>20.210927344733932</v>
+        <v>20.134360523711962</v>
       </c>
       <c r="L10" t="n">
-        <v>23.465242993862862</v>
+        <v>23.316848997212244</v>
       </c>
       <c r="M10" t="n">
-        <v>-2.6947891636785766</v>
+        <v>-2.688503606476626</v>
       </c>
       <c r="N10" t="n">
-        <v>11.747023247503202</v>
+        <v>11.67117711523596</v>
       </c>
     </row>
     <row r="11">
@@ -703,40 +703,40 @@
         <v>2025.0</v>
       </c>
       <c r="C11" t="n">
-        <v>27488.57721155135</v>
+        <v>27298.850028623423</v>
       </c>
       <c r="D11" t="n">
-        <v>26482.31293644525</v>
+        <v>26313.026168497745</v>
       </c>
       <c r="E11" t="n">
-        <v>1390.3970510152283</v>
+        <v>1383.2312618350225</v>
       </c>
       <c r="F11" t="n">
-        <v>614.0405263468054</v>
+        <v>611.762516224977</v>
       </c>
       <c r="G11" t="n">
-        <v>405.64070304234826</v>
+        <v>403.0591243505206</v>
       </c>
       <c r="H11" t="n">
-        <v>208.39982330445721</v>
+        <v>208.7033918744564</v>
       </c>
       <c r="I11" t="n">
-        <v>-776.3565246684228</v>
+        <v>-771.4687456100454</v>
       </c>
       <c r="J11" t="n">
-        <v>96.33933663658955</v>
+        <v>96.38877147172137</v>
       </c>
       <c r="K11" t="n">
-        <v>18.160000792548903</v>
+        <v>18.044426909706278</v>
       </c>
       <c r="L11" t="n">
-        <v>23.387160109164054</v>
+        <v>23.238627256679628</v>
       </c>
       <c r="M11" t="n">
-        <v>-2.93160392195197</v>
+        <v>-2.931889098083506</v>
       </c>
       <c r="N11" t="n">
-        <v>11.855783216709561</v>
+        <v>11.779995757092276</v>
       </c>
     </row>
     <row r="12">
@@ -747,40 +747,40 @@
         <v>2026.0</v>
       </c>
       <c r="C12" t="n">
-        <v>28617.12365214291</v>
+        <v>28417.30353543443</v>
       </c>
       <c r="D12" t="n">
-        <v>27633.903142660092</v>
+        <v>27457.174229604276</v>
       </c>
       <c r="E12" t="n">
-        <v>1464.7331496356821</v>
+        <v>1457.707490899772</v>
       </c>
       <c r="F12" t="n">
-        <v>587.9321650843873</v>
+        <v>584.6536528031402</v>
       </c>
       <c r="G12" t="n">
-        <v>371.70348518492136</v>
+        <v>368.1100003182416</v>
       </c>
       <c r="H12" t="n">
-        <v>216.22867989946593</v>
+        <v>216.54365248489853</v>
       </c>
       <c r="I12" t="n">
-        <v>-876.8009845512948</v>
+        <v>-873.0538380966318</v>
       </c>
       <c r="J12" t="n">
-        <v>96.56422315032627</v>
+        <v>96.62132156686526</v>
       </c>
       <c r="K12" t="n">
-        <v>16.06548921863632</v>
+        <v>15.910174311233025</v>
       </c>
       <c r="L12" t="n">
-        <v>23.320293352162892</v>
+        <v>23.17155997766695</v>
       </c>
       <c r="M12" t="n">
-        <v>-3.1729176295683157</v>
+        <v>-3.1796929676590926</v>
       </c>
       <c r="N12" t="n">
-        <v>11.943718332002755</v>
+        <v>11.867333886860758</v>
       </c>
     </row>
     <row r="13">
@@ -791,40 +791,40 @@
         <v>2027.0</v>
       </c>
       <c r="C13" t="n">
-        <v>29768.842705234438</v>
+        <v>29557.889362732065</v>
       </c>
       <c r="D13" t="n">
-        <v>28763.884819966956</v>
+        <v>28577.92942087071</v>
       </c>
       <c r="E13" t="n">
-        <v>1541.8894066197404</v>
+        <v>1534.959513722734</v>
       </c>
       <c r="F13" t="n">
-        <v>607.1520966983798</v>
+        <v>603.7409711699576</v>
       </c>
       <c r="G13" t="n">
-        <v>382.78947749111137</v>
+        <v>379.0515309587456</v>
       </c>
       <c r="H13" t="n">
-        <v>224.36261920726838</v>
+        <v>224.68944021121195</v>
       </c>
       <c r="I13" t="n">
-        <v>-934.7373099213607</v>
+        <v>-931.2185425527765</v>
       </c>
       <c r="J13" t="n">
-        <v>96.624128471441</v>
+        <v>96.68460785600976</v>
       </c>
       <c r="K13" t="n">
-        <v>15.982559494284661</v>
+        <v>15.826489496667293</v>
       </c>
       <c r="L13" t="n">
-        <v>23.27397167789164</v>
+        <v>23.124957445348624</v>
       </c>
       <c r="M13" t="n">
-        <v>-3.249690769421022</v>
+        <v>-3.258523487963755</v>
       </c>
       <c r="N13" t="n">
-        <v>12.009747588543584</v>
+        <v>11.932105871513675</v>
       </c>
     </row>
     <row r="14">
@@ -835,40 +835,40 @@
         <v>2028.0</v>
       </c>
       <c r="C14" t="n">
-        <v>30943.203525331468</v>
+        <v>30720.04168738128</v>
       </c>
       <c r="D14" t="n">
-        <v>29916.333573299016</v>
+        <v>29720.21419419178</v>
       </c>
       <c r="E14" t="n">
-        <v>1619.8977529567956</v>
+        <v>1613.0120251605572</v>
       </c>
       <c r="F14" t="n">
-        <v>658.3989619820342</v>
+        <v>655.4564472976558</v>
       </c>
       <c r="G14" t="n">
-        <v>425.5350343366391</v>
+        <v>422.25331509633156</v>
       </c>
       <c r="H14" t="n">
-        <v>232.8639276453951</v>
+        <v>233.20313220132428</v>
       </c>
       <c r="I14" t="n">
-        <v>-961.4987909747613</v>
+        <v>-957.5555778629015</v>
       </c>
       <c r="J14" t="n">
-        <v>96.68143619586199</v>
+        <v>96.74535762885978</v>
       </c>
       <c r="K14" t="n">
-        <v>17.162586177173</v>
+        <v>17.030228592658567</v>
       </c>
       <c r="L14" t="n">
-        <v>23.23908612170699</v>
+        <v>23.089723444208502</v>
       </c>
       <c r="M14" t="n">
-        <v>-3.213959319643768</v>
+        <v>-3.2218999890318303</v>
       </c>
       <c r="N14" t="n">
-        <v>12.065790396252464</v>
+        <v>11.98669195609257</v>
       </c>
     </row>
     <row r="15">
@@ -879,40 +879,40 @@
         <v>2029.0</v>
       </c>
       <c r="C15" t="n">
-        <v>32141.966397499393</v>
+        <v>31905.48847854928</v>
       </c>
       <c r="D15" t="n">
-        <v>31126.44739099857</v>
+        <v>30919.858012553548</v>
       </c>
       <c r="E15" t="n">
-        <v>1699.2955078347231</v>
+        <v>1692.3962749960574</v>
       </c>
       <c r="F15" t="n">
-        <v>680.6335911667928</v>
+        <v>677.5700061431622</v>
       </c>
       <c r="G15" t="n">
-        <v>438.95480533211776</v>
+        <v>435.53917546386265</v>
       </c>
       <c r="H15" t="n">
-        <v>241.67878583467512</v>
+        <v>242.0308306792996</v>
       </c>
       <c r="I15" t="n">
-        <v>-1018.6619166679303</v>
+        <v>-1014.8262688528953</v>
       </c>
       <c r="J15" t="n">
-        <v>96.84051997957481</v>
+        <v>96.91078083114635</v>
       </c>
       <c r="K15" t="n">
-        <v>17.103835091969717</v>
+        <v>16.97074537682777</v>
       </c>
       <c r="L15" t="n">
-        <v>23.21238815272799</v>
+        <v>23.06262728562223</v>
       </c>
       <c r="M15" t="n">
-        <v>-3.2726571840078225</v>
+        <v>-3.28211814051951</v>
       </c>
       <c r="N15" t="n">
-        <v>12.12839264333159</v>
+        <v>12.047895275088797</v>
       </c>
     </row>
     <row r="16">
@@ -923,40 +923,40 @@
         <v>2030.0</v>
       </c>
       <c r="C16" t="n">
-        <v>33366.276031575915</v>
+        <v>33115.34720274417</v>
       </c>
       <c r="D16" t="n">
-        <v>32365.86938490544</v>
+        <v>32147.909124478203</v>
       </c>
       <c r="E16" t="n">
-        <v>1780.5328285543371</v>
+        <v>1773.5562615396295</v>
       </c>
       <c r="F16" t="n">
-        <v>703.4085114597884</v>
+        <v>700.2154771779567</v>
       </c>
       <c r="G16" t="n">
-        <v>452.59067970319865</v>
+        <v>449.0322880553704</v>
       </c>
       <c r="H16" t="n">
-        <v>250.81783175658978</v>
+        <v>251.1831891225863</v>
       </c>
       <c r="I16" t="n">
-        <v>-1077.1243170945488</v>
+        <v>-1073.3407843616728</v>
       </c>
       <c r="J16" t="n">
-        <v>97.0017431800786</v>
+        <v>97.07858089983796</v>
       </c>
       <c r="K16" t="n">
-        <v>17.041307561582688</v>
+        <v>16.907324142978098</v>
       </c>
       <c r="L16" t="n">
-        <v>23.19003037121281</v>
+        <v>23.03984404717808</v>
       </c>
       <c r="M16" t="n">
-        <v>-3.3279634922981245</v>
+        <v>-3.3387576784718633</v>
       </c>
       <c r="N16" t="n">
-        <v>12.186656937961873</v>
+        <v>12.104588791163557</v>
       </c>
     </row>
     <row r="17">
@@ -967,40 +967,40 @@
         <v>2031.0</v>
       </c>
       <c r="C17" t="n">
-        <v>34616.756998663725</v>
+        <v>34350.220447867134</v>
       </c>
       <c r="D17" t="n">
-        <v>33635.400947896705</v>
+        <v>33405.16096562526</v>
       </c>
       <c r="E17" t="n">
-        <v>1864.1335786949594</v>
+        <v>1857.0089710001841</v>
       </c>
       <c r="F17" t="n">
-        <v>732.3001389679346</v>
+        <v>729.084081145971</v>
       </c>
       <c r="G17" t="n">
-        <v>472.6890700190959</v>
+        <v>469.0948460369737</v>
       </c>
       <c r="H17" t="n">
-        <v>259.61106894883875</v>
+        <v>259.9892351089973</v>
       </c>
       <c r="I17" t="n">
-        <v>-1131.8334397270248</v>
+        <v>-1127.924889854213</v>
       </c>
       <c r="J17" t="n">
-        <v>97.16508380376327</v>
+        <v>97.24875278842487</v>
       </c>
       <c r="K17" t="n">
-        <v>17.20441966966431</v>
+        <v>17.07360103708475</v>
       </c>
       <c r="L17" t="n">
-        <v>23.16557670870889</v>
+        <v>23.014975596914542</v>
       </c>
       <c r="M17" t="n">
-        <v>-3.3650065342770974</v>
+        <v>-3.3764988919373136</v>
       </c>
       <c r="N17" t="n">
-        <v>12.242245280637903</v>
+        <v>12.158445050614098</v>
       </c>
     </row>
     <row r="18">
@@ -1011,40 +1011,40 @@
         <v>2032.0</v>
       </c>
       <c r="C18" t="n">
-        <v>35893.27654641267</v>
+        <v>35609.96063182744</v>
       </c>
       <c r="D18" t="n">
-        <v>34941.3350712824</v>
+        <v>34698.02878145388</v>
       </c>
       <c r="E18" t="n">
-        <v>1948.4164445916438</v>
+        <v>1941.0659868139692</v>
       </c>
       <c r="F18" t="n">
-        <v>708.5356159344122</v>
+        <v>704.2393422169325</v>
       </c>
       <c r="G18" t="n">
-        <v>439.57311645203373</v>
+        <v>434.8850546799548</v>
       </c>
       <c r="H18" t="n">
-        <v>268.96249948237846</v>
+        <v>269.3542875369777</v>
       </c>
       <c r="I18" t="n">
-        <v>-1239.8808286572316</v>
+        <v>-1236.8266445970366</v>
       </c>
       <c r="J18" t="n">
-        <v>97.34785573588047</v>
+        <v>97.43911019784026</v>
       </c>
       <c r="K18" t="n">
-        <v>15.465701690785211</v>
+        <v>15.300759472616466</v>
       </c>
       <c r="L18" t="n">
-        <v>23.150713857686387</v>
+        <v>22.999665489208844</v>
       </c>
       <c r="M18" t="n">
-        <v>-3.5484643793026254</v>
+        <v>-3.5645444079466593</v>
       </c>
       <c r="N18" t="n">
-        <v>12.293569480589301</v>
+        <v>12.207965917560891</v>
       </c>
     </row>
     <row r="19">
@@ -1055,40 +1055,40 @@
         <v>2033.0</v>
       </c>
       <c r="C19" t="n">
-        <v>37198.07459041055</v>
+        <v>36896.79657246321</v>
       </c>
       <c r="D19" t="n">
-        <v>36229.06331082205</v>
+        <v>35970.7922971211</v>
       </c>
       <c r="E19" t="n">
-        <v>2032.2368605134438</v>
+        <v>2024.5756688460935</v>
       </c>
       <c r="F19" t="n">
-        <v>703.3430818944889</v>
+        <v>698.2941749640179</v>
       </c>
       <c r="G19" t="n">
-        <v>424.15549194372323</v>
+        <v>418.6999024350282</v>
       </c>
       <c r="H19" t="n">
-        <v>279.18758995076564</v>
+        <v>279.5942725289897</v>
       </c>
       <c r="I19" t="n">
-        <v>-1328.8937786189551</v>
+        <v>-1326.281493882076</v>
       </c>
       <c r="J19" t="n">
-        <v>97.39499613821873</v>
+        <v>97.49028544111262</v>
       </c>
       <c r="K19" t="n">
-        <v>14.422736244264678</v>
+        <v>14.237227556919127</v>
       </c>
       <c r="L19" t="n">
-        <v>23.150227835962763</v>
+        <v>22.998649442770926</v>
       </c>
       <c r="M19" t="n">
-        <v>-3.6680323949253157</v>
+        <v>-3.6871067029241495</v>
       </c>
       <c r="N19" t="n">
-        <v>12.319119625547152</v>
+        <v>12.231298654679188</v>
       </c>
     </row>
     <row r="20">
@@ -1099,40 +1099,40 @@
         <v>2034.0</v>
       </c>
       <c r="C20" t="n">
-        <v>38535.15772945287</v>
+        <v>38214.727570726725</v>
       </c>
       <c r="D20" t="n">
-        <v>37517.682247118326</v>
+        <v>37242.849113481956</v>
       </c>
       <c r="E20" t="n">
-        <v>2116.1121733751424</v>
+        <v>2108.048850604323</v>
       </c>
       <c r="F20" t="n">
-        <v>841.0009019560378</v>
+        <v>837.9613741730757</v>
       </c>
       <c r="G20" t="n">
-        <v>551.1285612847089</v>
+        <v>547.6667868292467</v>
       </c>
       <c r="H20" t="n">
-        <v>289.8723406713289</v>
+        <v>290.29458734382905</v>
       </c>
       <c r="I20" t="n">
-        <v>-1275.111271419105</v>
+        <v>-1270.0874764312475</v>
       </c>
       <c r="J20" t="n">
-        <v>97.35961770423268</v>
+        <v>97.45679605998488</v>
       </c>
       <c r="K20" t="n">
-        <v>18.1117107261545</v>
+        <v>17.99794660296994</v>
       </c>
       <c r="L20" t="n">
-        <v>23.164045465686264</v>
+        <v>23.011856334618077</v>
       </c>
       <c r="M20" t="n">
-        <v>-3.3986941491222957</v>
+        <v>-3.410285482083255</v>
       </c>
       <c r="N20" t="n">
-        <v>12.329417412003073</v>
+        <v>12.239099134852252</v>
       </c>
     </row>
     <row r="21">
@@ -1143,40 +1143,40 @@
         <v>2035.0</v>
       </c>
       <c r="C21" t="n">
-        <v>39908.207175757416</v>
+        <v>39567.43447572406</v>
       </c>
       <c r="D21" t="n">
-        <v>38960.763798876666</v>
+        <v>38670.718759829506</v>
       </c>
       <c r="E21" t="n">
-        <v>2200.744985868243</v>
+        <v>2192.181324611484</v>
       </c>
       <c r="F21" t="n">
-        <v>910.0348930337045</v>
+        <v>907.6290981612273</v>
       </c>
       <c r="G21" t="n">
-        <v>609.0831254898482</v>
+        <v>606.2389449399581</v>
       </c>
       <c r="H21" t="n">
-        <v>300.95176754385636</v>
+        <v>301.3901532212692</v>
       </c>
       <c r="I21" t="n">
-        <v>-1290.7100928345387</v>
+        <v>-1284.5522264502567</v>
       </c>
       <c r="J21" t="n">
-        <v>97.62594352407733</v>
+        <v>97.73370265781398</v>
       </c>
       <c r="K21" t="n">
-        <v>19.347644699352504</v>
+        <v>19.25729874748292</v>
       </c>
       <c r="L21" t="n">
-        <v>23.19066955044707</v>
+        <v>23.03780046882672</v>
       </c>
       <c r="M21" t="n">
-        <v>-3.312845968568391</v>
+        <v>-3.32176972046516</v>
       </c>
       <c r="N21" t="n">
-        <v>12.37596288010486</v>
+        <v>12.28382950573529</v>
       </c>
     </row>
     <row r="22">
@@ -1187,40 +1187,40 @@
         <v>2036.0</v>
       </c>
       <c r="C22" t="n">
-        <v>41320.34213276642</v>
+        <v>40958.04400981269</v>
       </c>
       <c r="D22" t="n">
-        <v>40495.307733995294</v>
+        <v>40190.12902338269</v>
       </c>
       <c r="E22" t="n">
-        <v>2286.599519769328</v>
+        <v>2277.4297601309017</v>
       </c>
       <c r="F22" t="n">
-        <v>934.8832993988576</v>
+        <v>932.2161869173709</v>
       </c>
       <c r="G22" t="n">
-        <v>623.7423036302816</v>
+        <v>620.6219631870052</v>
       </c>
       <c r="H22" t="n">
-        <v>311.140995768576</v>
+        <v>311.5942237303656</v>
       </c>
       <c r="I22" t="n">
-        <v>-1351.71622037047</v>
+        <v>-1345.213573213531</v>
       </c>
       <c r="J22" t="n">
-        <v>98.00332147270163</v>
+        <v>98.12511802017217</v>
       </c>
       <c r="K22" t="n">
-        <v>19.159928053396815</v>
+        <v>19.064078376298887</v>
       </c>
       <c r="L22" t="n">
-        <v>23.232598749464106</v>
+        <v>23.07896447003912</v>
       </c>
       <c r="M22" t="n">
-        <v>-3.337957644993327</v>
+        <v>-3.3471242961944294</v>
       </c>
       <c r="N22" t="n">
-        <v>12.439226555064868</v>
+        <v>12.345482678711857</v>
       </c>
     </row>
     <row r="23">
@@ -1231,40 +1231,40 @@
         <v>2037.0</v>
       </c>
       <c r="C23" t="n">
-        <v>42774.32392271337</v>
+        <v>42389.33432979315</v>
       </c>
       <c r="D23" t="n">
-        <v>42079.36087714668</v>
+        <v>41758.284108931846</v>
       </c>
       <c r="E23" t="n">
-        <v>2372.5156509218978</v>
+        <v>2362.62650490463</v>
       </c>
       <c r="F23" t="n">
-        <v>1010.1509482474871</v>
+        <v>1010.1124439102433</v>
       </c>
       <c r="G23" t="n">
-        <v>688.0112648519845</v>
+        <v>687.5035111580102</v>
       </c>
       <c r="H23" t="n">
-        <v>322.13968339550263</v>
+        <v>322.60893275223316</v>
       </c>
       <c r="I23" t="n">
-        <v>-1362.3647026744109</v>
+        <v>-1352.514060994387</v>
       </c>
       <c r="J23" t="n">
-        <v>98.37527988327217</v>
+        <v>98.51129952654686</v>
       </c>
       <c r="K23" t="n">
-        <v>20.418704797269477</v>
+        <v>20.403635752158394</v>
       </c>
       <c r="L23" t="n">
-        <v>23.26289931580215</v>
+        <v>23.10866909823421</v>
       </c>
       <c r="M23" t="n">
-        <v>-3.2376078777715267</v>
+        <v>-3.2389119664643795</v>
       </c>
       <c r="N23" t="n">
-        <v>12.48825552286668</v>
+        <v>12.392966796033834</v>
       </c>
     </row>
     <row r="24">
@@ -1275,40 +1275,40 @@
         <v>2038.0</v>
       </c>
       <c r="C24" t="n">
-        <v>44274.57922149257</v>
+        <v>43865.759670438274</v>
       </c>
       <c r="D24" t="n">
-        <v>43770.770887557694</v>
+        <v>43436.20280153276</v>
       </c>
       <c r="E24" t="n">
-        <v>2459.534377032778</v>
+        <v>2448.8050630856746</v>
       </c>
       <c r="F24" t="n">
-        <v>983.5936884428305</v>
+        <v>983.27843773982</v>
       </c>
       <c r="G24" t="n">
-        <v>649.5446707326355</v>
+        <v>648.7428227714892</v>
       </c>
       <c r="H24" t="n">
-        <v>334.04901771019513</v>
+        <v>334.53561496833083</v>
       </c>
       <c r="I24" t="n">
-        <v>-1475.9406885899477</v>
+        <v>-1465.5266253458547</v>
       </c>
       <c r="J24" t="n">
-        <v>98.86208216363973</v>
+        <v>99.02074676893152</v>
       </c>
       <c r="K24" t="n">
-        <v>18.60806009612932</v>
+        <v>18.585088873792696</v>
       </c>
       <c r="L24" t="n">
-        <v>23.276741013285896</v>
+        <v>23.122052887950577</v>
       </c>
       <c r="M24" t="n">
-        <v>-3.371977825982269</v>
+        <v>-3.3739750043117023</v>
       </c>
       <c r="N24" t="n">
-        <v>12.53938600113371</v>
+        <v>12.443539428426448</v>
       </c>
     </row>
     <row r="25">
@@ -1319,40 +1319,40 @@
         <v>2039.0</v>
       </c>
       <c r="C25" t="n">
-        <v>45824.6242405204</v>
+        <v>45390.87262136962</v>
       </c>
       <c r="D25" t="n">
-        <v>45466.94246389034</v>
+        <v>45118.476889400925</v>
       </c>
       <c r="E25" t="n">
-        <v>2548.3111540754676</v>
+        <v>2536.6154712126486</v>
       </c>
       <c r="F25" t="n">
-        <v>1013.8764475661355</v>
+        <v>1013.4474523203068</v>
       </c>
       <c r="G25" t="n">
-        <v>667.0607895887605</v>
+        <v>666.126600376468</v>
       </c>
       <c r="H25" t="n">
-        <v>346.81565797737505</v>
+        <v>347.32085194383876</v>
       </c>
       <c r="I25" t="n">
-        <v>-1534.4347065093323</v>
+        <v>-1523.1680188923417</v>
       </c>
       <c r="J25" t="n">
-        <v>99.21945507997454</v>
+        <v>99.39988875243498</v>
       </c>
       <c r="K25" t="n">
-        <v>18.433865202918934</v>
+        <v>18.408049387805534</v>
       </c>
       <c r="L25" t="n">
-        <v>23.276857892756478</v>
+        <v>23.121830591124333</v>
       </c>
       <c r="M25" t="n">
-        <v>-3.374835921126595</v>
+        <v>-3.375929605571767</v>
       </c>
       <c r="N25" t="n">
-        <v>12.564544366112852</v>
+        <v>12.468247783728577</v>
       </c>
     </row>
     <row r="26">
@@ -1363,40 +1363,40 @@
         <v>2040.0</v>
       </c>
       <c r="C26" t="n">
-        <v>47427.52274577155</v>
+        <v>46967.781942963375</v>
       </c>
       <c r="D26" t="n">
-        <v>47227.44583918458</v>
+        <v>46864.95703579673</v>
       </c>
       <c r="E26" t="n">
-        <v>2640.027272443591</v>
+        <v>2627.234781191939</v>
       </c>
       <c r="F26" t="n">
-        <v>986.1283979958937</v>
+        <v>983.4892458126889</v>
       </c>
       <c r="G26" t="n">
-        <v>625.7315663420171</v>
+        <v>622.5674369823317</v>
       </c>
       <c r="H26" t="n">
-        <v>360.3968316538766</v>
+        <v>360.9218088303571</v>
       </c>
       <c r="I26" t="n">
-        <v>-1653.898874447697</v>
+        <v>-1643.74553537925</v>
       </c>
       <c r="J26" t="n">
-        <v>99.57814177295437</v>
+        <v>99.78107352974125</v>
       </c>
       <c r="K26" t="n">
-        <v>16.670932770900084</v>
+        <v>16.586633063691586</v>
       </c>
       <c r="L26" t="n">
-        <v>23.26318949587862</v>
+        <v>23.107941491272758</v>
       </c>
       <c r="M26" t="n">
-        <v>-3.5019867051024347</v>
+        <v>-3.50740860409562</v>
       </c>
       <c r="N26" t="n">
-        <v>12.582481320688697</v>
+        <v>12.485905939222645</v>
       </c>
     </row>
     <row r="27">
@@ -1407,40 +1407,40 @@
         <v>2041.0</v>
       </c>
       <c r="C27" t="n">
-        <v>49085.212393973</v>
+        <v>48598.47880174008</v>
       </c>
       <c r="D27" t="n">
-        <v>48991.56298709215</v>
+        <v>48612.802362948794</v>
       </c>
       <c r="E27" t="n">
-        <v>2734.1470162273517</v>
+        <v>2720.124087697239</v>
       </c>
       <c r="F27" t="n">
-        <v>930.2364298795219</v>
+        <v>924.2813358254836</v>
       </c>
       <c r="G27" t="n">
-        <v>557.5080506366548</v>
+        <v>551.0100164817529</v>
       </c>
       <c r="H27" t="n">
-        <v>372.72837924286705</v>
+        <v>373.2713193437307</v>
       </c>
       <c r="I27" t="n">
-        <v>-1803.9105863478298</v>
+        <v>-1795.8427518717554</v>
       </c>
       <c r="J27" t="n">
-        <v>99.80921054974917</v>
+        <v>100.02947327069037</v>
       </c>
       <c r="K27" t="n">
-        <v>14.316495821343747</v>
+        <v>14.149629928161815</v>
       </c>
       <c r="L27" t="n">
-        <v>23.245622215575697</v>
+        <v>23.090208672044245</v>
       </c>
       <c r="M27" t="n">
-        <v>-3.682084171968769</v>
+        <v>-3.6941765637450525</v>
       </c>
       <c r="N27" t="n">
-        <v>12.580760151980648</v>
+        <v>12.483496536026662</v>
       </c>
     </row>
     <row r="28">
@@ -1451,40 +1451,40 @@
         <v>2042.0</v>
       </c>
       <c r="C28" t="n">
-        <v>50800.510023373696</v>
+        <v>50285.84009464258</v>
       </c>
       <c r="D28" t="n">
-        <v>50726.72633080015</v>
+        <v>50328.23158190782</v>
       </c>
       <c r="E28" t="n">
-        <v>2829.082630771036</v>
+        <v>2813.6939528282073</v>
       </c>
       <c r="F28" t="n">
-        <v>938.6974712325758</v>
+        <v>932.4121791505904</v>
       </c>
       <c r="G28" t="n">
-        <v>552.6182458105267</v>
+        <v>545.7705659274897</v>
       </c>
       <c r="H28" t="n">
-        <v>386.07922542204903</v>
+        <v>386.64161322310076</v>
       </c>
       <c r="I28" t="n">
-        <v>-1890.3851595384597</v>
+        <v>-1881.2817736776171</v>
       </c>
       <c r="J28" t="n">
-        <v>99.85475796888737</v>
+        <v>100.08430104217287</v>
       </c>
       <c r="K28" t="n">
-        <v>13.675206150857452</v>
+        <v>13.505752038971831</v>
       </c>
       <c r="L28" t="n">
-        <v>23.229203034304778</v>
+        <v>23.073665888017747</v>
       </c>
       <c r="M28" t="n">
-        <v>-3.726605866916864</v>
+        <v>-3.7380247915444484</v>
       </c>
       <c r="N28" t="n">
-        <v>12.552941297013662</v>
+        <v>12.454328956895504</v>
       </c>
     </row>
     <row r="29">
@@ -1495,40 +1495,40 @@
         <v>2043.0</v>
       </c>
       <c r="C29" t="n">
-        <v>52578.38422862289</v>
+        <v>52034.90019503735</v>
       </c>
       <c r="D29" t="n">
-        <v>52499.06675910632</v>
+        <v>52080.471043847465</v>
       </c>
       <c r="E29" t="n">
-        <v>2925.2644306543857</v>
+        <v>2908.374547506942</v>
       </c>
       <c r="F29" t="n">
-        <v>973.6623206857465</v>
+        <v>967.1345142594222</v>
       </c>
       <c r="G29" t="n">
-        <v>573.1870626290362</v>
+        <v>566.0758982157392</v>
       </c>
       <c r="H29" t="n">
-        <v>400.47525805671035</v>
+        <v>401.05861604368295</v>
       </c>
       <c r="I29" t="n">
-        <v>-1951.6021099686388</v>
+        <v>-1941.2400332475195</v>
       </c>
       <c r="J29" t="n">
-        <v>99.8491443381529</v>
+        <v>100.08757746942787</v>
       </c>
       <c r="K29" t="n">
-        <v>13.667928292582847</v>
+        <v>13.498359068825588</v>
       </c>
       <c r="L29" t="n">
-        <v>23.217458397059875</v>
+        <v>23.061799632303984</v>
       </c>
       <c r="M29" t="n">
-        <v>-3.7174034329479206</v>
+        <v>-3.7273857058880195</v>
       </c>
       <c r="N29" t="n">
-        <v>12.518661475012772</v>
+        <v>12.41884526155013</v>
       </c>
     </row>
     <row r="30">
@@ -1539,40 +1539,40 @@
         <v>2044.0</v>
       </c>
       <c r="C30" t="n">
-        <v>54423.79077755332</v>
+        <v>53850.684673924065</v>
       </c>
       <c r="D30" t="n">
-        <v>54338.524497823</v>
+        <v>53899.673336394946</v>
       </c>
       <c r="E30" t="n">
-        <v>3023.2573129558127</v>
+        <v>3004.7334284969534</v>
       </c>
       <c r="F30" t="n">
-        <v>1010.0923916380395</v>
+        <v>1003.3129543630914</v>
       </c>
       <c r="G30" t="n">
-        <v>594.2088448369352</v>
+        <v>586.8236048718178</v>
       </c>
       <c r="H30" t="n">
-        <v>415.88354680110444</v>
+        <v>416.4893494912736</v>
       </c>
       <c r="I30" t="n">
-        <v>-2013.1649213177734</v>
+        <v>-2001.420474133862</v>
       </c>
       <c r="J30" t="n">
-        <v>99.84332903218971</v>
+        <v>100.09097128990565</v>
       </c>
       <c r="K30" t="n">
-        <v>13.653518392453861</v>
+        <v>13.483822988939487</v>
       </c>
       <c r="L30" t="n">
-        <v>23.20954184230019</v>
+        <v>23.05376635641116</v>
       </c>
       <c r="M30" t="n">
-        <v>-3.7048575387769835</v>
+        <v>-3.713233031381719</v>
       </c>
       <c r="N30" t="n">
-        <v>12.485711885581729</v>
+        <v>12.38487423470913</v>
       </c>
     </row>
     <row r="31">
@@ -1583,40 +1583,40 @@
         <v>2045.0</v>
       </c>
       <c r="C31" t="n">
-        <v>56341.42279545321</v>
+        <v>55737.95901477446</v>
       </c>
       <c r="D31" t="n">
-        <v>56249.761544743116</v>
+        <v>55790.621826930656</v>
       </c>
       <c r="E31" t="n">
-        <v>3123.4253718338528</v>
+        <v>3103.1403583395922</v>
       </c>
       <c r="F31" t="n">
-        <v>1048.0076433550478</v>
+        <v>1040.9673113701365</v>
       </c>
       <c r="G31" t="n">
-        <v>615.881480458045</v>
+        <v>608.2116857449516</v>
       </c>
       <c r="H31" t="n">
-        <v>432.1261628970028</v>
+        <v>432.7556256251849</v>
       </c>
       <c r="I31" t="n">
-        <v>-2075.417728478805</v>
+        <v>-2062.1730469694558</v>
       </c>
       <c r="J31" t="n">
-        <v>99.83731108274831</v>
+        <v>100.0944828499053</v>
       </c>
       <c r="K31" t="n">
-        <v>13.64022011655429</v>
+        <v>13.470353524596414</v>
       </c>
       <c r="L31" t="n">
-        <v>23.210723804460926</v>
+        <v>23.05479822297337</v>
       </c>
       <c r="M31" t="n">
-        <v>-3.6896471584647372</v>
+        <v>-3.6962718454126025</v>
       </c>
       <c r="N31" t="n">
-        <v>12.457902263977134</v>
+        <v>12.356214406590079</v>
       </c>
     </row>
   </sheetData>
@@ -1682,40 +1682,40 @@
         <v>2016.0</v>
       </c>
       <c r="C2" t="n">
-        <v>18735.619219568038</v>
+        <v>18808.24945460566</v>
       </c>
       <c r="D2" t="n">
-        <v>17049.413489806917</v>
+        <v>17115.50700369115</v>
       </c>
       <c r="E2" t="n">
-        <v>905.7444929012577</v>
+        <v>941.5021499815762</v>
       </c>
       <c r="F2" t="n">
-        <v>564.5035954737891</v>
+        <v>565.4443227408146</v>
       </c>
       <c r="G2" t="n">
-        <v>430.051833143195</v>
+        <v>430.79670933617746</v>
       </c>
       <c r="H2" t="n">
-        <v>134.45176233059414</v>
+        <v>134.64761340463724</v>
       </c>
       <c r="I2" t="n">
-        <v>-341.24089742746855</v>
+        <v>-376.0578272407615</v>
       </c>
       <c r="J2" t="n">
-        <v>90.9999999999999</v>
+        <v>90.99999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>30.778119227237926</v>
+        <v>30.831428820431803</v>
       </c>
       <c r="L2" t="n">
-        <v>28.190093731304653</v>
+        <v>28.0183966145994</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.0014817379582075</v>
+        <v>-2.197176088091696</v>
       </c>
       <c r="N2" t="n">
-        <v>12.201991497360494</v>
+        <v>12.249293564081338</v>
       </c>
     </row>
     <row r="3">
@@ -1726,40 +1726,40 @@
         <v>2020.0</v>
       </c>
       <c r="C3" t="n">
-        <v>22259.454567716184</v>
+        <v>22145.98305473206</v>
       </c>
       <c r="D3" t="n">
-        <v>20861.519802402076</v>
+        <v>20764.81250286854</v>
       </c>
       <c r="E3" t="n">
-        <v>1130.3223404283374</v>
+        <v>1175.2230482246478</v>
       </c>
       <c r="F3" t="n">
-        <v>598.5517691032122</v>
+        <v>597.7067774277064</v>
       </c>
       <c r="G3" t="n">
-        <v>422.8594549446894</v>
+        <v>421.75853855810044</v>
       </c>
       <c r="H3" t="n">
-        <v>175.6923141585228</v>
+        <v>175.9482388696059</v>
       </c>
       <c r="I3" t="n">
-        <v>-531.770571325125</v>
+        <v>-577.5162707969414</v>
       </c>
       <c r="J3" t="n">
-        <v>93.71981572566649</v>
+        <v>93.76333600341837</v>
       </c>
       <c r="K3" t="n">
-        <v>23.00733743885847</v>
+        <v>22.947437738137495</v>
       </c>
       <c r="L3" t="n">
-        <v>24.258590191472162</v>
+        <v>24.1079622858802</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.549050003844375</v>
+        <v>-2.781225550277234</v>
       </c>
       <c r="N3" t="n">
-        <v>11.350533137400774</v>
+        <v>11.297915714586852</v>
       </c>
     </row>
     <row r="4">
@@ -1770,40 +1770,40 @@
         <v>2025.0</v>
       </c>
       <c r="C4" t="n">
-        <v>27488.57721155135</v>
+        <v>27298.850028623423</v>
       </c>
       <c r="D4" t="n">
-        <v>26482.31293644525</v>
+        <v>26313.026168497745</v>
       </c>
       <c r="E4" t="n">
-        <v>1390.3970510152283</v>
+        <v>1383.2312618350225</v>
       </c>
       <c r="F4" t="n">
-        <v>614.0405263468054</v>
+        <v>611.762516224977</v>
       </c>
       <c r="G4" t="n">
-        <v>405.64070304234826</v>
+        <v>403.0591243505206</v>
       </c>
       <c r="H4" t="n">
-        <v>208.39982330445721</v>
+        <v>208.7033918744564</v>
       </c>
       <c r="I4" t="n">
-        <v>-776.3565246684228</v>
+        <v>-771.4687456100454</v>
       </c>
       <c r="J4" t="n">
-        <v>96.33933663658955</v>
+        <v>96.38877147172137</v>
       </c>
       <c r="K4" t="n">
-        <v>18.160000792548903</v>
+        <v>18.044426909706278</v>
       </c>
       <c r="L4" t="n">
-        <v>23.387160109164054</v>
+        <v>23.238627256679628</v>
       </c>
       <c r="M4" t="n">
-        <v>-2.93160392195197</v>
+        <v>-2.931889098083506</v>
       </c>
       <c r="N4" t="n">
-        <v>11.855783216709561</v>
+        <v>11.779995757092276</v>
       </c>
     </row>
     <row r="5">
@@ -1814,40 +1814,40 @@
         <v>2030.0</v>
       </c>
       <c r="C5" t="n">
-        <v>33366.276031575915</v>
+        <v>33115.34720274417</v>
       </c>
       <c r="D5" t="n">
-        <v>32365.86938490544</v>
+        <v>32147.909124478203</v>
       </c>
       <c r="E5" t="n">
-        <v>1780.5328285543371</v>
+        <v>1773.5562615396295</v>
       </c>
       <c r="F5" t="n">
-        <v>703.4085114597884</v>
+        <v>700.2154771779567</v>
       </c>
       <c r="G5" t="n">
-        <v>452.59067970319865</v>
+        <v>449.0322880553704</v>
       </c>
       <c r="H5" t="n">
-        <v>250.81783175658978</v>
+        <v>251.1831891225863</v>
       </c>
       <c r="I5" t="n">
-        <v>-1077.1243170945488</v>
+        <v>-1073.3407843616728</v>
       </c>
       <c r="J5" t="n">
-        <v>97.0017431800786</v>
+        <v>97.07858089983796</v>
       </c>
       <c r="K5" t="n">
-        <v>17.041307561582688</v>
+        <v>16.907324142978098</v>
       </c>
       <c r="L5" t="n">
-        <v>23.19003037121281</v>
+        <v>23.03984404717808</v>
       </c>
       <c r="M5" t="n">
-        <v>-3.3279634922981245</v>
+        <v>-3.3387576784718633</v>
       </c>
       <c r="N5" t="n">
-        <v>12.186656937961873</v>
+        <v>12.104588791163557</v>
       </c>
     </row>
     <row r="6">
@@ -1858,40 +1858,40 @@
         <v>2035.0</v>
       </c>
       <c r="C6" t="n">
-        <v>39908.207175757416</v>
+        <v>39567.43447572406</v>
       </c>
       <c r="D6" t="n">
-        <v>38960.763798876666</v>
+        <v>38670.718759829506</v>
       </c>
       <c r="E6" t="n">
-        <v>2200.744985868243</v>
+        <v>2192.181324611484</v>
       </c>
       <c r="F6" t="n">
-        <v>910.0348930337045</v>
+        <v>907.6290981612273</v>
       </c>
       <c r="G6" t="n">
-        <v>609.0831254898482</v>
+        <v>606.2389449399581</v>
       </c>
       <c r="H6" t="n">
-        <v>300.95176754385636</v>
+        <v>301.3901532212692</v>
       </c>
       <c r="I6" t="n">
-        <v>-1290.7100928345387</v>
+        <v>-1284.5522264502567</v>
       </c>
       <c r="J6" t="n">
-        <v>97.62594352407733</v>
+        <v>97.73370265781398</v>
       </c>
       <c r="K6" t="n">
-        <v>19.347644699352504</v>
+        <v>19.25729874748292</v>
       </c>
       <c r="L6" t="n">
-        <v>23.19066955044707</v>
+        <v>23.03780046882672</v>
       </c>
       <c r="M6" t="n">
-        <v>-3.312845968568391</v>
+        <v>-3.32176972046516</v>
       </c>
       <c r="N6" t="n">
-        <v>12.37596288010486</v>
+        <v>12.28382950573529</v>
       </c>
     </row>
     <row r="7">
@@ -1902,40 +1902,40 @@
         <v>2040.0</v>
       </c>
       <c r="C7" t="n">
-        <v>47427.52274577155</v>
+        <v>46967.781942963375</v>
       </c>
       <c r="D7" t="n">
-        <v>47227.44583918458</v>
+        <v>46864.95703579673</v>
       </c>
       <c r="E7" t="n">
-        <v>2640.027272443591</v>
+        <v>2627.234781191939</v>
       </c>
       <c r="F7" t="n">
-        <v>986.1283979958937</v>
+        <v>983.4892458126889</v>
       </c>
       <c r="G7" t="n">
-        <v>625.7315663420171</v>
+        <v>622.5674369823317</v>
       </c>
       <c r="H7" t="n">
-        <v>360.3968316538766</v>
+        <v>360.9218088303571</v>
       </c>
       <c r="I7" t="n">
-        <v>-1653.898874447697</v>
+        <v>-1643.74553537925</v>
       </c>
       <c r="J7" t="n">
-        <v>99.57814177295437</v>
+        <v>99.78107352974125</v>
       </c>
       <c r="K7" t="n">
-        <v>16.670932770900084</v>
+        <v>16.586633063691586</v>
       </c>
       <c r="L7" t="n">
-        <v>23.26318949587862</v>
+        <v>23.107941491272758</v>
       </c>
       <c r="M7" t="n">
-        <v>-3.5019867051024347</v>
+        <v>-3.50740860409562</v>
       </c>
       <c r="N7" t="n">
-        <v>12.582481320688697</v>
+        <v>12.485905939222645</v>
       </c>
     </row>
     <row r="8">
@@ -1946,40 +1946,40 @@
         <v>2045.0</v>
       </c>
       <c r="C8" t="n">
-        <v>56341.42279545321</v>
+        <v>55737.95901477446</v>
       </c>
       <c r="D8" t="n">
-        <v>56249.761544743116</v>
+        <v>55790.621826930656</v>
       </c>
       <c r="E8" t="n">
-        <v>3123.4253718338528</v>
+        <v>3103.1403583395922</v>
       </c>
       <c r="F8" t="n">
-        <v>1048.0076433550478</v>
+        <v>1040.9673113701365</v>
       </c>
       <c r="G8" t="n">
-        <v>615.881480458045</v>
+        <v>608.2116857449516</v>
       </c>
       <c r="H8" t="n">
-        <v>432.1261628970028</v>
+        <v>432.7556256251849</v>
       </c>
       <c r="I8" t="n">
-        <v>-2075.417728478805</v>
+        <v>-2062.1730469694558</v>
       </c>
       <c r="J8" t="n">
-        <v>99.83731108274831</v>
+        <v>100.0944828499053</v>
       </c>
       <c r="K8" t="n">
-        <v>13.64022011655429</v>
+        <v>13.470353524596414</v>
       </c>
       <c r="L8" t="n">
-        <v>23.210723804460926</v>
+        <v>23.05479822297337</v>
       </c>
       <c r="M8" t="n">
-        <v>-3.6896471584647372</v>
+        <v>-3.6962718454126025</v>
       </c>
       <c r="N8" t="n">
-        <v>12.457902263977134</v>
+        <v>12.356214406590079</v>
       </c>
     </row>
   </sheetData>
@@ -2063,10 +2063,10 @@
         <v>8.295852073963019</v>
       </c>
       <c r="F2" t="n">
-        <v>15.092453773113442</v>
+        <v>15.04247876061969</v>
       </c>
       <c r="G2" t="n">
-        <v>13.493253373313344</v>
+        <v>13.343328335832084</v>
       </c>
       <c r="H2" t="n">
         <v>3.4482758620689653</v>
@@ -2078,10 +2078,10 @@
         <v>8.295852073963019</v>
       </c>
       <c r="K2" t="n">
-        <v>15.092453773113442</v>
+        <v>15.04247876061969</v>
       </c>
       <c r="L2" t="n">
-        <v>13.493253373313344</v>
+        <v>13.343328335832084</v>
       </c>
       <c r="M2" t="n">
         <v>3.4482758620689653</v>
@@ -2093,10 +2093,10 @@
         <v>8.295852073963019</v>
       </c>
       <c r="P2" t="n">
-        <v>15.092453773113442</v>
+        <v>15.04247876061969</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.493253373313344</v>
+        <v>13.343328335832084</v>
       </c>
     </row>
     <row r="3">
@@ -2107,49 +2107,49 @@
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>64.51774112943528</v>
+        <v>64.16791604197901</v>
       </c>
       <c r="D3" t="n">
-        <v>70.21489255372313</v>
+        <v>70.31484257871064</v>
       </c>
       <c r="E3" t="n">
-        <v>80.55972013993004</v>
+        <v>80.45977011494253</v>
       </c>
       <c r="F3" t="n">
-        <v>72.8135932033983</v>
+        <v>72.66366816591704</v>
       </c>
       <c r="G3" t="n">
-        <v>82.95852073963019</v>
+        <v>82.85857071464268</v>
       </c>
       <c r="H3" t="n">
-        <v>61.11944027986007</v>
+        <v>61.019490254872565</v>
       </c>
       <c r="I3" t="n">
-        <v>66.66666666666667</v>
+        <v>66.91654172913543</v>
       </c>
       <c r="J3" t="n">
         <v>77.96101949025487</v>
       </c>
       <c r="K3" t="n">
-        <v>70.86456771614193</v>
+        <v>70.81459270364817</v>
       </c>
       <c r="L3" t="n">
         <v>80.15992003998001</v>
       </c>
       <c r="M3" t="n">
-        <v>18.54072963518241</v>
+        <v>19.090454772613693</v>
       </c>
       <c r="N3" t="n">
-        <v>13.393303348325837</v>
+        <v>13.843078460769615</v>
       </c>
       <c r="O3" t="n">
-        <v>9.095452273863069</v>
+        <v>9.89505247376312</v>
       </c>
       <c r="P3" t="n">
-        <v>27.08645677161419</v>
+        <v>27.786106946526736</v>
       </c>
       <c r="Q3" t="n">
-        <v>20.189905047476262</v>
+        <v>21.039480259870064</v>
       </c>
     </row>
     <row r="4">
@@ -2160,34 +2160,34 @@
         <v>61</v>
       </c>
       <c r="C4" t="n">
-        <v>32.8335832083958</v>
+        <v>32.33383308345827</v>
       </c>
       <c r="D4" t="n">
-        <v>40.72963518240879</v>
+        <v>40.62968515742129</v>
       </c>
       <c r="E4" t="n">
-        <v>54.27286356821589</v>
+        <v>53.92303848075962</v>
       </c>
       <c r="F4" t="n">
-        <v>52.47376311844078</v>
+        <v>52.32383808095952</v>
       </c>
       <c r="G4" t="n">
-        <v>58.07096451774113</v>
+        <v>57.671164417791104</v>
       </c>
       <c r="H4" t="n">
-        <v>27.636181909045476</v>
+        <v>27.48625687156422</v>
       </c>
       <c r="I4" t="n">
-        <v>34.832583708145926</v>
+        <v>34.73263368315842</v>
       </c>
       <c r="J4" t="n">
-        <v>48.32583708145927</v>
+        <v>48.125937031484256</v>
       </c>
       <c r="K4" t="n">
-        <v>48.0759620189905</v>
+        <v>47.726136931534235</v>
       </c>
       <c r="L4" t="n">
-        <v>51.9240379810095</v>
+        <v>51.874062968515744</v>
       </c>
       <c r="M4" t="n">
         <v>0.0</v>
@@ -2292,19 +2292,19 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.997501249375312</v>
+        <v>4.597701149425287</v>
       </c>
       <c r="I2" t="n">
-        <v>4.997501249375312</v>
+        <v>4.7976011994003</v>
       </c>
       <c r="J2" t="n">
-        <v>5.59720139930035</v>
+        <v>5.297351324337831</v>
       </c>
       <c r="K2" t="n">
-        <v>12.493753123438282</v>
+        <v>11.994002998500749</v>
       </c>
       <c r="L2" t="n">
-        <v>14.592703648175911</v>
+        <v>13.843078460769615</v>
       </c>
       <c r="M2" t="n">
         <v>100.0</v>
@@ -2330,49 +2330,49 @@
         <v>63</v>
       </c>
       <c r="C3" t="n">
-        <v>9.570503687906626</v>
+        <v>9.584444698376993</v>
       </c>
       <c r="D3" t="n">
-        <v>9.570503687906626</v>
+        <v>9.584444698376993</v>
       </c>
       <c r="E3" t="n">
-        <v>9.570503687906626</v>
+        <v>9.584444698376993</v>
       </c>
       <c r="F3" t="n">
-        <v>9.570503687906626</v>
+        <v>9.584444698376993</v>
       </c>
       <c r="G3" t="n">
-        <v>9.570503687906626</v>
+        <v>9.584444698376993</v>
       </c>
       <c r="H3" t="n">
-        <v>15.942342822193853</v>
+        <v>15.380700423236856</v>
       </c>
       <c r="I3" t="n">
-        <v>16.146524288893186</v>
+        <v>15.569286003922315</v>
       </c>
       <c r="J3" t="n">
-        <v>16.76974500072437</v>
+        <v>16.167273563623723</v>
       </c>
       <c r="K3" t="n">
-        <v>15.975542848172623</v>
+        <v>15.379418860143698</v>
       </c>
       <c r="L3" t="n">
-        <v>19.31056546365205</v>
+        <v>18.69371494249</v>
       </c>
       <c r="M3" t="n">
-        <v>34.973464336075786</v>
+        <v>33.28129508287842</v>
       </c>
       <c r="N3" t="n">
-        <v>34.37131857585894</v>
+        <v>32.65464865421294</v>
       </c>
       <c r="O3" t="n">
-        <v>41.009439850450164</v>
+        <v>39.267510194616484</v>
       </c>
       <c r="P3" t="n">
-        <v>43.36049071296162</v>
+        <v>41.589184122169584</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.862092629408565</v>
+        <v>51.00464748765484</v>
       </c>
     </row>
   </sheetData>
